--- a/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
+++ b/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84ae54e972e39744/J-5/GitHub/Project Portfolio/KKBox Customer Churn Prediction/Legacy Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84ae54e972e39744/J-5/GitHub/Project Portfolio/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="759" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{660B02FB-5A73-4DE9-B617-CE8A3AA10A19}"/>
+  <xr:revisionPtr revIDLastSave="760" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82586C57-4C3B-47E4-B8BF-F3C70890B049}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="77">
   <si>
     <t xml:space="preserve">GBT-1to1-Model1 </t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">GBT-13o1-Model2 </t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
 </sst>
 </file>
@@ -581,20 +585,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,6 +603,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,8 +621,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF2881-0D28-4EEC-97D1-A43FE1F69A76}">
   <dimension ref="A1:BD368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH61" sqref="AH61:AI61"/>
+    <sheetView tabSelected="1" topLeftCell="Q33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,18 +1042,18 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1067,42 +1071,42 @@
     </row>
     <row r="6" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="21" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="28"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="21" t="s">
+      <c r="S6" s="24"/>
+      <c r="T6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="22"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1139,8 +1143,8 @@
     </row>
     <row r="7" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1148,8 +1152,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1158,8 +1162,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1171,8 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1178,32 +1182,32 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="33" t="s">
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="33"/>
+      <c r="AB7" s="29"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="26" t="s">
+      <c r="AD7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="22"/>
+      <c r="AG7" s="28"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="26" t="s">
+      <c r="AI7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="21" t="s">
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" s="22"/>
+      <c r="AL7" s="28"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
@@ -1223,7 +1227,7 @@
     </row>
     <row r="8" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1236,7 +1240,7 @@
         <v>106002</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1263,7 +1267,7 @@
         <v>74441</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -1278,8 +1282,8 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
       <c r="AA8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1287,8 +1291,8 @@
         <v>3</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="29"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="26"/>
       <c r="AF8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1300,8 @@
         <v>3</v>
       </c>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="29"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="26"/>
       <c r="AK8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="9" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>16722</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>16194</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="24"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1374,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1383,7 +1387,7 @@
         <v>109475</v>
       </c>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="23" t="s">
+      <c r="AD9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
@@ -1396,7 +1400,7 @@
         <v>107540</v>
       </c>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="23" t="s">
+      <c r="AI9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AJ9" s="5" t="s">
@@ -1439,7 +1443,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="Y10" s="24"/>
+      <c r="Y10" s="22"/>
       <c r="Z10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1449,7 +1453,7 @@
       <c r="AB10" s="4">
         <v>16555</v>
       </c>
-      <c r="AD10" s="24"/>
+      <c r="AD10" s="22"/>
       <c r="AE10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>16453</v>
       </c>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="24"/>
+      <c r="AI10" s="22"/>
       <c r="AJ10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1472,39 +1476,39 @@
       </c>
     </row>
     <row r="11" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="28"/>
+      <c r="G11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="28"/>
+      <c r="M11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="21" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="21" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U11" s="22"/>
+      <c r="U11" s="28"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -1513,24 +1517,24 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1538,42 +1542,42 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Y12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="21" t="s">
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="22"/>
-      <c r="AD12" s="26" t="s">
+      <c r="AB12" s="28"/>
+      <c r="AD12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="21" t="s">
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AG12" s="22"/>
+      <c r="AG12" s="28"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="26" t="s">
+      <c r="AI12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="21" t="s">
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AL12" s="22"/>
+      <c r="AL12" s="28"/>
     </row>
     <row r="13" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1585,7 +1589,7 @@
       <c r="E13" s="4">
         <v>105436</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1597,7 +1601,7 @@
       <c r="J13" s="4">
         <v>107540</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1610,7 +1614,7 @@
         <v>41327</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -1622,16 +1626,16 @@
       <c r="U13" s="8">
         <v>13130</v>
       </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="29"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="29"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="26"/>
       <c r="AF13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1639,8 +1643,8 @@
         <v>3</v>
       </c>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="29"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="26"/>
       <c r="AK13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1653,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1663,7 @@
       <c r="E14" s="4">
         <v>16675</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1673,7 @@
       <c r="J14" s="4">
         <v>16453</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>14057</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1694,7 @@
       <c r="U14" s="8">
         <v>9384</v>
       </c>
-      <c r="Y14" s="23" t="s">
+      <c r="Y14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="s">
@@ -1702,7 +1706,7 @@
       <c r="AB14" s="4">
         <v>91104</v>
       </c>
-      <c r="AD14" s="23" t="s">
+      <c r="AD14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
@@ -1715,7 +1719,7 @@
         <v>98714</v>
       </c>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="23" t="s">
+      <c r="AI14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AJ14" s="5" t="s">
@@ -1738,7 +1742,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="Y15" s="24"/>
+      <c r="Y15" s="22"/>
       <c r="Z15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1752,7 @@
       <c r="AB15" s="4">
         <v>16207</v>
       </c>
-      <c r="AD15" s="24"/>
+      <c r="AD15" s="22"/>
       <c r="AE15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>16474</v>
       </c>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="24"/>
+      <c r="AI15" s="22"/>
       <c r="AJ15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1771,39 +1775,39 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="28"/>
+      <c r="G16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="M16" s="26" t="s">
+      <c r="J16" s="28"/>
+      <c r="M16" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="21" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="22"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="21" t="s">
+      <c r="S16" s="24"/>
+      <c r="T16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="22"/>
+      <c r="U16" s="28"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -1812,24 +1816,24 @@
       <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1837,22 +1841,22 @@
         <v>3</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="26" t="s">
+      <c r="Y17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="21" t="s">
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB17" s="22"/>
+      <c r="AB17" s="28"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -1861,7 +1865,7 @@
       <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1873,7 +1877,7 @@
       <c r="E18" s="4">
         <v>103432</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1885,7 +1889,7 @@
       <c r="J18" s="4">
         <v>103067</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -1898,7 +1902,7 @@
         <v>27910</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
@@ -1910,8 +1914,8 @@
       <c r="U18" s="8">
         <v>10698</v>
       </c>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1956,7 +1960,7 @@
       </c>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="E19" s="4">
         <v>16672</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1980,7 @@
       <c r="J19" s="4">
         <v>16441</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>11570</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="24"/>
+      <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2001,7 @@
       <c r="U19" s="8">
         <v>8575</v>
       </c>
-      <c r="Y19" s="23" t="s">
+      <c r="Y19" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="s">
@@ -2061,7 +2065,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="Y20" s="24"/>
+      <c r="Y20" s="22"/>
       <c r="Z20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2109,31 +2113,31 @@
       </c>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="28"/>
+      <c r="G21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="24"/>
+      <c r="I21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="28"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="21" t="s">
+      <c r="S21" s="24"/>
+      <c r="T21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="22"/>
+      <c r="U21" s="28"/>
       <c r="AE21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2172,16 +2176,16 @@
       </c>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
@@ -2189,22 +2193,22 @@
         <v>3</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="26" t="s">
+      <c r="Y22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="21" t="s">
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="22"/>
+      <c r="AB22" s="28"/>
       <c r="AE22" s="18" t="s">
         <v>60</v>
       </c>
@@ -2243,7 +2247,7 @@
       </c>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2255,7 +2259,7 @@
       <c r="E23" s="4">
         <v>106643</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2268,7 +2272,7 @@
         <v>91104</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="5" t="s">
@@ -2280,8 +2284,8 @@
       <c r="U23" s="8">
         <v>9553</v>
       </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="29"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
       <c r="AA23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2326,7 +2330,7 @@
       </c>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2340,7 @@
       <c r="E24" s="4">
         <v>16093</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>16207</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="24"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2357,7 +2361,7 @@
       <c r="U24" s="8">
         <v>8018</v>
       </c>
-      <c r="Y24" s="23" t="s">
+      <c r="Y24" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="5" t="s">
@@ -2407,7 +2411,7 @@
       </c>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y25" s="24"/>
+      <c r="Y25" s="22"/>
       <c r="Z25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2455,22 +2459,22 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="G26" s="26" t="s">
+      <c r="E26" s="28"/>
+      <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="28"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
@@ -2479,38 +2483,38 @@
       <c r="AJ26" s="3"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="21" t="s">
+      <c r="N27" s="24"/>
+      <c r="O27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="R27" s="26" t="s">
+      <c r="P27" s="28"/>
+      <c r="R27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="21" t="s">
+      <c r="S27" s="24"/>
+      <c r="T27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="22"/>
+      <c r="U27" s="28"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
@@ -2519,7 +2523,7 @@
       <c r="AJ27" s="3"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2531,7 +2535,7 @@
       <c r="E28" s="4">
         <v>114306</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2543,16 +2547,16 @@
       <c r="J28" s="4">
         <v>98714</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="29"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
       <c r="T28" s="6" t="s">
         <v>2</v>
       </c>
@@ -2597,7 +2601,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="E29" s="4">
         <v>16336</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2621,7 @@
       <c r="J29" s="4">
         <v>16474</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -2629,7 +2633,7 @@
       <c r="P29" s="8">
         <v>68390</v>
       </c>
-      <c r="R29" s="23" t="s">
+      <c r="R29" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -2679,7 +2683,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M30" s="24"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2689,7 +2693,7 @@
       <c r="P30" s="8">
         <v>15655</v>
       </c>
-      <c r="R30" s="24"/>
+      <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2737,22 +2741,22 @@
       </c>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="G31" s="26" t="s">
+      <c r="E31" s="28"/>
+      <c r="G31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="24"/>
+      <c r="I31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="28"/>
       <c r="AE31" s="13" t="s">
         <v>23</v>
       </c>
@@ -2791,38 +2795,38 @@
       </c>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="21" t="s">
+      <c r="N32" s="24"/>
+      <c r="O32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="R32" s="26" t="s">
+      <c r="P32" s="28"/>
+      <c r="R32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="21" t="s">
+      <c r="S32" s="24"/>
+      <c r="T32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="22"/>
+      <c r="U32" s="28"/>
       <c r="AE32" s="18" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +2865,7 @@
       </c>
     </row>
     <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2873,7 +2877,7 @@
       <c r="E33" s="4">
         <v>109029</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2885,16 +2889,16 @@
       <c r="J33" s="4">
         <v>96577</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="29"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
       <c r="T33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2943,7 @@
       </c>
     </row>
     <row r="34" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="E34" s="4">
         <v>16107</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +2963,7 @@
       <c r="J34" s="4">
         <v>16205</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -2971,7 +2975,7 @@
       <c r="P34" s="8">
         <v>18752</v>
       </c>
-      <c r="R34" s="23" t="s">
+      <c r="R34" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="5" t="s">
@@ -3042,7 +3046,7 @@
       </c>
     </row>
     <row r="35" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="M35" s="24"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3056,7 @@
       <c r="P35" s="8">
         <v>11068</v>
       </c>
-      <c r="R35" s="24"/>
+      <c r="R35" s="22"/>
       <c r="S35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3144,22 +3148,22 @@
       </c>
     </row>
     <row r="37" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="21" t="s">
+      <c r="N37" s="24"/>
+      <c r="O37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="R37" s="26" t="s">
+      <c r="P37" s="28"/>
+      <c r="R37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="27"/>
-      <c r="T37" s="21" t="s">
+      <c r="S37" s="24"/>
+      <c r="T37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="22"/>
+      <c r="U37" s="28"/>
       <c r="AX37" s="16">
         <v>0</v>
       </c>
@@ -3183,16 +3187,16 @@
       </c>
     </row>
     <row r="38" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="29"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="26"/>
       <c r="T38" s="6" t="s">
         <v>2</v>
       </c>
@@ -3258,7 +3262,7 @@
       </c>
     </row>
     <row r="39" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -3270,7 +3274,7 @@
       <c r="P39" s="8">
         <v>10752</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="5" t="s">
@@ -3341,7 +3345,7 @@
       </c>
     </row>
     <row r="40" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="24"/>
+      <c r="M40" s="22"/>
       <c r="N40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3351,7 +3355,7 @@
       <c r="P40" s="8">
         <v>8149</v>
       </c>
-      <c r="R40" s="24"/>
+      <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3479,14 +3483,14 @@
       </c>
     </row>
     <row r="42" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R42" s="26" t="s">
+      <c r="R42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="27"/>
-      <c r="T42" s="21" t="s">
+      <c r="S42" s="24"/>
+      <c r="T42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="22"/>
+      <c r="U42" s="28"/>
       <c r="AE42" s="18" t="s">
         <v>24</v>
       </c>
@@ -3546,8 +3550,8 @@
       </c>
     </row>
     <row r="43" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R43" s="28"/>
-      <c r="S43" s="29"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26"/>
       <c r="T43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3613,7 +3617,7 @@
       </c>
     </row>
     <row r="44" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -3684,7 +3688,7 @@
       </c>
     </row>
     <row r="45" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R45" s="24"/>
+      <c r="R45" s="22"/>
       <c r="S45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3753,14 +3757,14 @@
       </c>
     </row>
     <row r="46" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="28"/>
       <c r="AX46" s="16">
         <v>0</v>
       </c>
@@ -3784,8 +3788,8 @@
       </c>
     </row>
     <row r="47" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3839,7 +3843,7 @@
       </c>
     </row>
     <row r="48" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3871,7 +3875,7 @@
       </c>
     </row>
     <row r="49" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
@@ -3882,23 +3886,23 @@
         <v>8158</v>
       </c>
       <c r="L49" s="3"/>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="21" t="s">
+      <c r="N49" s="24"/>
+      <c r="O49" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="22"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="26" t="s">
+      <c r="R49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S49" s="27"/>
-      <c r="T49" s="21" t="s">
+      <c r="S49" s="24"/>
+      <c r="T49" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="22"/>
+      <c r="U49" s="28"/>
       <c r="V49" s="3"/>
       <c r="AL49" s="18" t="s">
         <v>68</v>
@@ -3921,8 +3925,8 @@
     </row>
     <row r="50" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L50" s="3"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3930,8 +3934,8 @@
         <v>3</v>
       </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="29"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="26"/>
       <c r="T50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3959,16 +3963,16 @@
       </c>
     </row>
     <row r="51" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="24"/>
+      <c r="D51" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="28"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
@@ -3981,7 +3985,7 @@
         <v>76062</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="23" t="s">
+      <c r="R51" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="5" t="s">
@@ -3996,8 +4000,8 @@
       <c r="V51" s="3"/>
     </row>
     <row r="52" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="24"/>
+      <c r="M52" s="22"/>
       <c r="N52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>17305</v>
       </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="24"/>
+      <c r="R52" s="22"/>
       <c r="S52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4065,7 +4069,7 @@
       </c>
     </row>
     <row r="53" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4124,7 +4128,7 @@
       </c>
     </row>
     <row r="54" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4134,23 +4138,23 @@
       <c r="E54" s="4">
         <v>8095</v>
       </c>
-      <c r="M54" s="26" t="s">
+      <c r="M54" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="27"/>
-      <c r="O54" s="21" t="s">
+      <c r="N54" s="24"/>
+      <c r="O54" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="22"/>
+      <c r="P54" s="28"/>
       <c r="Q54" s="9"/>
-      <c r="R54" s="26" t="s">
+      <c r="R54" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="S54" s="27"/>
-      <c r="T54" s="21" t="s">
+      <c r="S54" s="24"/>
+      <c r="T54" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="22"/>
+      <c r="U54" s="28"/>
       <c r="AE54" s="18" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4193,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M55" s="28"/>
-      <c r="N55" s="29"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4198,8 +4202,8 @@
         <v>3</v>
       </c>
       <c r="Q55" s="9"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="29"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="26"/>
       <c r="T55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4244,15 +4248,15 @@
       </c>
     </row>
     <row r="56" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="21" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="M56" s="23" t="s">
+      <c r="E56" s="28"/>
+      <c r="M56" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N56" s="5" t="s">
@@ -4265,7 +4269,7 @@
         <v>33399</v>
       </c>
       <c r="Q56" s="9"/>
-      <c r="R56" s="23" t="s">
+      <c r="R56" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="5" t="s">
@@ -4297,15 +4301,15 @@
       </c>
     </row>
     <row r="57" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="24"/>
+      <c r="M57" s="22"/>
       <c r="N57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4316,7 +4320,7 @@
         <v>14637</v>
       </c>
       <c r="Q57" s="9"/>
-      <c r="R57" s="24"/>
+      <c r="R57" s="22"/>
       <c r="S57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4364,7 +4368,7 @@
       </c>
     </row>
     <row r="58" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4423,7 +4427,7 @@
       </c>
     </row>
     <row r="59" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="24"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
@@ -4433,23 +4437,23 @@
       <c r="E59" s="4">
         <v>8095</v>
       </c>
-      <c r="M59" s="26" t="s">
+      <c r="M59" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="27"/>
-      <c r="O59" s="21" t="s">
+      <c r="N59" s="24"/>
+      <c r="O59" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="22"/>
+      <c r="P59" s="28"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="26" t="s">
+      <c r="R59" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="S59" s="27"/>
-      <c r="T59" s="21" t="s">
+      <c r="S59" s="24"/>
+      <c r="T59" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="22"/>
+      <c r="U59" s="28"/>
       <c r="AE59" s="13" t="s">
         <v>53</v>
       </c>
@@ -4488,8 +4492,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="28"/>
-      <c r="N60" s="29"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4497,8 +4501,8 @@
         <v>3</v>
       </c>
       <c r="Q60" s="9"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="29"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="26"/>
       <c r="T60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4525,7 +4529,7 @@
       </c>
     </row>
     <row r="61" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M61" s="23" t="s">
+      <c r="M61" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N61" s="5" t="s">
@@ -4538,7 +4542,7 @@
         <v>20945</v>
       </c>
       <c r="Q61" s="9"/>
-      <c r="R61" s="23" t="s">
+      <c r="R61" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
@@ -4560,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="AH61" s="20" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI61" s="20" t="s">
         <v>37</v>
@@ -4570,7 +4574,7 @@
       </c>
     </row>
     <row r="62" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M62" s="24"/>
+      <c r="M62" s="22"/>
       <c r="N62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>12490</v>
       </c>
       <c r="Q62" s="9"/>
-      <c r="R62" s="24"/>
+      <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4681,14 +4685,14 @@
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="26" t="s">
+      <c r="R64" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="27"/>
-      <c r="T64" s="21" t="s">
+      <c r="S64" s="24"/>
+      <c r="T64" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U64" s="22"/>
+      <c r="U64" s="28"/>
       <c r="AE64" s="13" t="s">
         <v>59</v>
       </c>
@@ -4732,8 +4736,8 @@
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="29"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="26"/>
       <c r="T65" s="6" t="s">
         <v>2</v>
       </c>
@@ -4783,7 +4787,7 @@
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="23" t="s">
+      <c r="R66" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -4820,7 +4824,7 @@
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="24"/>
+      <c r="R67" s="22"/>
       <c r="S67" s="5" t="s">
         <v>3</v>
       </c>
@@ -7394,21 +7398,103 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M2:U3"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R21:S22"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="Y22:Z23"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="Y24:Y25"/>
@@ -7433,103 +7519,21 @@
     <mergeCell ref="R37:S38"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="R39:R40"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="M2:U3"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R21:S22"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="R59:S60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
+++ b/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84ae54e972e39744/J-5/GitHub/Project Portfolio/KKBox Part 1 - Customer Churn Prediction/Legacy Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="760" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82586C57-4C3B-47E4-B8BF-F3C70890B049}"/>
+  <xr:revisionPtr revIDLastSave="1047" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CED31A6-BF75-433F-B6C7-3C6B8C4176B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="97">
   <si>
     <t xml:space="preserve">GBT-1to1-Model1 </t>
   </si>
@@ -263,18 +263,110 @@
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>Total LTV</t>
+  </si>
+  <si>
+    <t>Total LTV Remaining</t>
+  </si>
+  <si>
+    <t>Median LTV per Member</t>
+  </si>
+  <si>
+    <t>Median LTV Remaining per Member</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lifetime Value 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feb 2016 Members</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remaining Lifetime Value 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feb 2016 Members</t>
+    </r>
+  </si>
+  <si>
+    <t># of Members Being Risked (FN)</t>
+  </si>
+  <si>
+    <t># of Members Being Potentially Saved (TN)</t>
+  </si>
+  <si>
+    <t>Potential Reward (True Negs, USD)</t>
+  </si>
+  <si>
+    <t>Amount Left On Table (False Pos, USD)</t>
+  </si>
+  <si>
+    <t># of Marked, 
+At-Risk Users</t>
+  </si>
+  <si>
+    <t>Total Treatment Cost</t>
+  </si>
+  <si>
+    <t>Potential ROI</t>
+  </si>
+  <si>
+    <t>Model Cohort</t>
+  </si>
+  <si>
+    <t>Amount Being Risked (USD)</t>
+  </si>
+  <si>
+    <t>Potential Reward (USD)</t>
+  </si>
+  <si>
+    <t># of At-Risk Users</t>
+  </si>
+  <si>
+    <t>gbt_1to175_results</t>
+  </si>
+  <si>
+    <t>gbt_13to1mean_results</t>
+  </si>
+  <si>
+    <t>odel Cohort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +427,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +514,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -522,12 +657,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,11 +791,71 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,15 +869,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,13 +878,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,11 +1209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF2881-0D28-4EEC-97D1-A43FE1F69A76}">
   <dimension ref="A1:BD368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z49" sqref="Z49"/>
+    <sheetView topLeftCell="AC36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL38" sqref="AL38:AQ43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
@@ -977,7 +1245,7 @@
     <col min="44" max="54" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="2" customFormat="1">
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -985,29 +1253,29 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:54" s="2" customFormat="1">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="M2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -1015,25 +1283,25 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+    <row r="3" spans="1:54" s="2" customFormat="1">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -1041,19 +1309,19 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:54" s="2" customFormat="1">
+      <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="G4" s="33" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1061,7 +1329,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="2" customFormat="1">
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -1069,44 +1337,44 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="27" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="44"/>
+      <c r="T6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="28"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1141,10 +1409,10 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1152,8 +1420,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1162,8 +1430,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1171,8 +1439,8 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46"/>
       <c r="T7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1182,32 +1450,32 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="29" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="29"/>
+      <c r="AB7" s="50"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="23" t="s">
+      <c r="AD7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="27" t="s">
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="28"/>
+      <c r="AG7" s="39"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="23" t="s">
+      <c r="AI7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="27" t="s">
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" s="28"/>
+      <c r="AL7" s="39"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
@@ -1225,9 +1493,9 @@
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1240,7 +1508,7 @@
         <v>106002</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1254,7 +1522,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="49" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1267,7 +1535,7 @@
         <v>74441</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -1282,8 +1550,8 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46"/>
       <c r="AA8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1291,8 +1559,8 @@
         <v>3</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="46"/>
       <c r="AF8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1300,8 +1568,8 @@
         <v>3</v>
       </c>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="26"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="46"/>
       <c r="AK8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1325,9 +1593,9 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1606,7 @@
         <v>16722</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1618,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1629,7 @@
         <v>16194</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1642,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1387,7 +1655,7 @@
         <v>109475</v>
       </c>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
@@ -1400,7 +1668,7 @@
         <v>107540</v>
       </c>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="21" t="s">
+      <c r="AI9" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AJ9" s="5" t="s">
@@ -1433,7 +1701,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1443,7 +1711,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="41"/>
       <c r="Z10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1721,7 @@
       <c r="AB10" s="4">
         <v>16555</v>
       </c>
-      <c r="AD10" s="22"/>
+      <c r="AD10" s="41"/>
       <c r="AE10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1732,7 @@
         <v>16453</v>
       </c>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="22"/>
+      <c r="AI10" s="41"/>
       <c r="AJ10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1475,40 +1743,40 @@
         <v>16441</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="39"/>
+      <c r="G11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="M11" s="23" t="s">
+      <c r="J11" s="39"/>
+      <c r="M11" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="27" t="s">
+      <c r="N11" s="44"/>
+      <c r="O11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="28"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="27" t="s">
+      <c r="S11" s="44"/>
+      <c r="T11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U11" s="28"/>
+      <c r="U11" s="39"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -1516,25 +1784,25 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
       <c r="O12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1542,42 +1810,42 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="26"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="46"/>
       <c r="T12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="27" t="s">
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="28"/>
-      <c r="AD12" s="23" t="s">
+      <c r="AB12" s="39"/>
+      <c r="AD12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="27" t="s">
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG12" s="28"/>
+      <c r="AG12" s="39"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="23" t="s">
+      <c r="AI12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="27" t="s">
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AL12" s="28"/>
-    </row>
-    <row r="13" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="AL12" s="39"/>
+    </row>
+    <row r="13" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B13" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1589,7 +1857,7 @@
       <c r="E13" s="4">
         <v>105436</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1601,7 +1869,7 @@
       <c r="J13" s="4">
         <v>107540</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1614,7 +1882,7 @@
         <v>41327</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -1626,16 +1894,16 @@
       <c r="U13" s="8">
         <v>13130</v>
       </c>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="26"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="46"/>
       <c r="AA13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="26"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="46"/>
       <c r="AF13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1643,8 +1911,8 @@
         <v>3</v>
       </c>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="26"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
       <c r="AK13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1652,8 +1920,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B14" s="41"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1931,7 @@
       <c r="E14" s="4">
         <v>16675</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1941,7 @@
       <c r="J14" s="4">
         <v>16453</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1952,7 @@
         <v>14057</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="41"/>
       <c r="S14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1962,7 @@
       <c r="U14" s="8">
         <v>9384</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Y14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="s">
@@ -1706,7 +1974,7 @@
       <c r="AB14" s="4">
         <v>91104</v>
       </c>
-      <c r="AD14" s="21" t="s">
+      <c r="AD14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
@@ -1719,7 +1987,7 @@
         <v>98714</v>
       </c>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="21" t="s">
+      <c r="AI14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AJ14" s="5" t="s">
@@ -1732,7 +2000,7 @@
         <v>96577</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1742,7 +2010,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="Y15" s="22"/>
+      <c r="Y15" s="41"/>
       <c r="Z15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +2020,7 @@
       <c r="AB15" s="4">
         <v>16207</v>
       </c>
-      <c r="AD15" s="22"/>
+      <c r="AD15" s="41"/>
       <c r="AE15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +2031,7 @@
         <v>16474</v>
       </c>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="22"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1774,40 +2042,40 @@
         <v>16205</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="G16" s="23" t="s">
+      <c r="E16" s="39"/>
+      <c r="G16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="M16" s="23" t="s">
+      <c r="J16" s="39"/>
+      <c r="M16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="27" t="s">
+      <c r="N16" s="44"/>
+      <c r="O16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="28"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="27" t="s">
+      <c r="S16" s="44"/>
+      <c r="T16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="28"/>
+      <c r="U16" s="39"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -1815,25 +2083,25 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1841,22 +2109,22 @@
         <v>3</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
       <c r="T17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="23" t="s">
+      <c r="Y17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="27" t="s">
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="39"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -1864,8 +2132,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1877,7 +2145,7 @@
       <c r="E18" s="4">
         <v>103432</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1889,7 +2157,7 @@
       <c r="J18" s="4">
         <v>103067</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -1902,7 +2170,7 @@
         <v>27910</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
@@ -1914,8 +2182,8 @@
       <c r="U18" s="8">
         <v>10698</v>
       </c>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="46"/>
       <c r="AA18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1959,8 +2227,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="B19" s="41"/>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +2238,7 @@
       <c r="E19" s="4">
         <v>16672</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1980,7 +2248,7 @@
       <c r="J19" s="4">
         <v>16441</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +2259,7 @@
         <v>11570</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="22"/>
+      <c r="R19" s="41"/>
       <c r="S19" s="5" t="s">
         <v>3</v>
       </c>
@@ -2001,7 +2269,7 @@
       <c r="U19" s="8">
         <v>8575</v>
       </c>
-      <c r="Y19" s="21" t="s">
+      <c r="Y19" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="s">
@@ -2050,7 +2318,7 @@
         <v>0.14593200000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="29.45" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2065,7 +2333,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="Y20" s="22"/>
+      <c r="Y20" s="41"/>
       <c r="Z20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2112,32 +2380,32 @@
         <v>8.7404999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="G21" s="23" t="s">
+      <c r="E21" s="39"/>
+      <c r="G21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="39"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="24"/>
-      <c r="T21" s="27" t="s">
+      <c r="S21" s="44"/>
+      <c r="T21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="28"/>
+      <c r="U21" s="39"/>
       <c r="AE21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2175,17 +2443,17 @@
         <v>6.6548999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
@@ -2193,22 +2461,22 @@
         <v>3</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="26"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="23" t="s">
+      <c r="Y22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="27" t="s">
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="28"/>
+      <c r="AB22" s="39"/>
       <c r="AE22" s="18" t="s">
         <v>60</v>
       </c>
@@ -2246,8 +2514,8 @@
         <v>5.0290000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B23" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2259,7 +2527,7 @@
       <c r="E23" s="4">
         <v>106643</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2272,7 +2540,7 @@
         <v>91104</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="5" t="s">
@@ -2284,8 +2552,8 @@
       <c r="U23" s="8">
         <v>9553</v>
       </c>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="46"/>
       <c r="AA23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2329,8 +2597,8 @@
         <v>4.3090999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B24" s="41"/>
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2608,7 @@
       <c r="E24" s="4">
         <v>16093</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2619,7 @@
         <v>16207</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="22"/>
+      <c r="R24" s="41"/>
       <c r="S24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2361,7 +2629,7 @@
       <c r="U24" s="8">
         <v>8018</v>
       </c>
-      <c r="Y24" s="21" t="s">
+      <c r="Y24" s="40" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="5" t="s">
@@ -2410,8 +2678,8 @@
         <v>4.0017999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y25" s="22"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="Y25" s="41"/>
       <c r="Z25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2458,23 +2726,23 @@
         <v>3.8871999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B26" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="G26" s="23" t="s">
+      <c r="E26" s="39"/>
+      <c r="G26" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="27" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="39"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
@@ -2482,39 +2750,39 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="27" t="s">
+      <c r="N27" s="44"/>
+      <c r="O27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="R27" s="23" t="s">
+      <c r="P27" s="39"/>
+      <c r="R27" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="24"/>
-      <c r="T27" s="27" t="s">
+      <c r="S27" s="44"/>
+      <c r="T27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="28"/>
+      <c r="U27" s="39"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
@@ -2522,8 +2790,8 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B28" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2535,7 +2803,7 @@
       <c r="E28" s="4">
         <v>114306</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2547,16 +2815,16 @@
       <c r="J28" s="4">
         <v>98714</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
       <c r="O28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="26"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
       <c r="T28" s="6" t="s">
         <v>2</v>
       </c>
@@ -2600,8 +2868,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="41"/>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2879,7 @@
       <c r="E29" s="4">
         <v>16336</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2889,7 @@
       <c r="J29" s="4">
         <v>16474</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -2633,7 +2901,7 @@
       <c r="P29" s="8">
         <v>68390</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -2682,8 +2950,8 @@
         <v>0.143543</v>
       </c>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M30" s="22"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="M30" s="41"/>
       <c r="N30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2961,7 @@
       <c r="P30" s="8">
         <v>15655</v>
       </c>
-      <c r="R30" s="22"/>
+      <c r="R30" s="41"/>
       <c r="S30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2740,23 +3008,23 @@
         <v>7.0577000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="G31" s="23" t="s">
+      <c r="E31" s="39"/>
+      <c r="G31" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="27" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="28"/>
+      <c r="J31" s="39"/>
       <c r="AE31" s="13" t="s">
         <v>23</v>
       </c>
@@ -2794,39 +3062,39 @@
         <v>5.1773E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="27" t="s">
+      <c r="N32" s="44"/>
+      <c r="O32" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="28"/>
-      <c r="R32" s="23" t="s">
+      <c r="P32" s="39"/>
+      <c r="R32" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="27" t="s">
+      <c r="S32" s="44"/>
+      <c r="T32" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="28"/>
+      <c r="U32" s="39"/>
       <c r="AE32" s="18" t="s">
         <v>24</v>
       </c>
@@ -2864,8 +3132,8 @@
         <v>4.4311000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2877,7 +3145,7 @@
       <c r="E33" s="4">
         <v>109029</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2889,16 +3157,16 @@
       <c r="J33" s="4">
         <v>96577</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
       <c r="O33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="46"/>
       <c r="T33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2942,8 +3210,8 @@
         <v>4.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
+    <row r="34" spans="2:56" s="2" customFormat="1" ht="30">
+      <c r="B34" s="41"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2953,7 +3221,7 @@
       <c r="E34" s="4">
         <v>16107</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2963,7 +3231,7 @@
       <c r="J34" s="4">
         <v>16205</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -2975,7 +3243,7 @@
       <c r="P34" s="8">
         <v>18752</v>
       </c>
-      <c r="R34" s="21" t="s">
+      <c r="R34" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="5" t="s">
@@ -3045,8 +3313,8 @@
         <v>0.14593200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="M35" s="22"/>
+    <row r="35" spans="2:56" s="2" customFormat="1" ht="30">
+      <c r="M35" s="41"/>
       <c r="N35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3324,7 @@
       <c r="P35" s="8">
         <v>11068</v>
       </c>
-      <c r="R35" s="22"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3124,7 +3392,7 @@
         <v>8.7404999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="AX36" s="16">
         <v>0</v>
       </c>
@@ -3147,23 +3415,23 @@
         <v>6.6548999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M37" s="23" t="s">
+    <row r="37" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M37" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="27" t="s">
+      <c r="N37" s="44"/>
+      <c r="O37" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="R37" s="23" t="s">
+      <c r="P37" s="39"/>
+      <c r="R37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="24"/>
-      <c r="T37" s="27" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="28"/>
+      <c r="U37" s="39"/>
       <c r="AX37" s="16">
         <v>0</v>
       </c>
@@ -3186,17 +3454,17 @@
         <v>5.0290000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
+    <row r="38" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M38" s="45"/>
+      <c r="N38" s="46"/>
       <c r="O38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="25"/>
-      <c r="S38" s="26"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46"/>
       <c r="T38" s="6" t="s">
         <v>2</v>
       </c>
@@ -3261,8 +3529,8 @@
         <v>4.3090999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M39" s="21" t="s">
+    <row r="39" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="M39" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -3274,7 +3542,7 @@
       <c r="P39" s="8">
         <v>10752</v>
       </c>
-      <c r="R39" s="21" t="s">
+      <c r="R39" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="5" t="s">
@@ -3344,8 +3612,8 @@
         <v>4.0017999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="22"/>
+    <row r="40" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="M40" s="41"/>
       <c r="N40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3355,7 +3623,7 @@
       <c r="P40" s="8">
         <v>8149</v>
       </c>
-      <c r="R40" s="22"/>
+      <c r="R40" s="41"/>
       <c r="S40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3691,7 @@
         <v>3.8871999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
       <c r="AE41" s="13" t="s">
         <v>23</v>
       </c>
@@ -3482,15 +3750,15 @@
         <v>0.13536899999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R42" s="23" t="s">
+    <row r="42" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="R42" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="24"/>
-      <c r="T42" s="27" t="s">
+      <c r="S42" s="44"/>
+      <c r="T42" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="28"/>
+      <c r="U42" s="39"/>
       <c r="AE42" s="18" t="s">
         <v>24</v>
       </c>
@@ -3549,9 +3817,9 @@
         <v>5.0569999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R43" s="25"/>
-      <c r="S43" s="26"/>
+    <row r="43" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="R43" s="45"/>
+      <c r="S43" s="46"/>
       <c r="T43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3616,8 +3884,8 @@
         <v>4.0826000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R44" s="21" t="s">
+    <row r="44" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="R44" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -3687,8 +3955,8 @@
         <v>3.6537E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R45" s="22"/>
+    <row r="45" spans="2:56" s="2" customFormat="1" ht="27.6" customHeight="1">
+      <c r="R45" s="41"/>
       <c r="S45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3756,15 +4024,15 @@
         <v>3.4932999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
+    <row r="46" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B46" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="39"/>
       <c r="AX46" s="16">
         <v>0</v>
       </c>
@@ -3787,9 +4055,9 @@
         <v>3.4153999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
+    <row r="47" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3842,8 +4110,8 @@
         <v>3.3508000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+    <row r="48" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B48" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3874,8 +4142,8 @@
         <v>3.3928E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
+    <row r="49" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B49" s="41"/>
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
@@ -3886,23 +4154,23 @@
         <v>8158</v>
       </c>
       <c r="L49" s="3"/>
-      <c r="M49" s="23" t="s">
+      <c r="M49" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="24"/>
-      <c r="O49" s="27" t="s">
+      <c r="N49" s="44"/>
+      <c r="O49" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="28"/>
+      <c r="P49" s="39"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="23" t="s">
+      <c r="R49" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="S49" s="24"/>
-      <c r="T49" s="27" t="s">
+      <c r="S49" s="44"/>
+      <c r="T49" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="28"/>
+      <c r="U49" s="39"/>
       <c r="V49" s="3"/>
       <c r="AL49" s="18" t="s">
         <v>68</v>
@@ -3923,10 +4191,10 @@
         <v>3.3791000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="L50" s="3"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="46"/>
       <c r="O50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3934,8 +4202,8 @@
         <v>3</v>
       </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="26"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="46"/>
       <c r="T50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3962,17 +4230,17 @@
         <v>3.3799000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
+    <row r="51" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="39"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
@@ -3985,7 +4253,7 @@
         <v>76062</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="21" t="s">
+      <c r="R51" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="5" t="s">
@@ -3999,9 +4267,9 @@
       </c>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
+    <row r="52" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
@@ -4009,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="22"/>
+      <c r="M52" s="41"/>
       <c r="N52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4020,7 +4288,7 @@
         <v>17305</v>
       </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="22"/>
+      <c r="R52" s="41"/>
       <c r="S52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4068,8 +4336,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+    <row r="53" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B53" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4127,8 +4395,8 @@
         <v>-9.9839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
+    <row r="54" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4138,23 +4406,23 @@
       <c r="E54" s="4">
         <v>8095</v>
       </c>
-      <c r="M54" s="23" t="s">
+      <c r="M54" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="24"/>
-      <c r="O54" s="27" t="s">
+      <c r="N54" s="44"/>
+      <c r="O54" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="28"/>
+      <c r="P54" s="39"/>
       <c r="Q54" s="9"/>
-      <c r="R54" s="23" t="s">
+      <c r="R54" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="S54" s="24"/>
-      <c r="T54" s="27" t="s">
+      <c r="S54" s="44"/>
+      <c r="T54" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="28"/>
+      <c r="U54" s="39"/>
       <c r="AE54" s="18" t="s">
         <v>49</v>
       </c>
@@ -4192,9 +4460,9 @@
         <v>-9.9349999999999994E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M55" s="25"/>
-      <c r="N55" s="26"/>
+    <row r="55" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M55" s="45"/>
+      <c r="N55" s="46"/>
       <c r="O55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4202,8 +4470,8 @@
         <v>3</v>
       </c>
       <c r="Q55" s="9"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="26"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="46"/>
       <c r="T55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4247,16 +4515,16 @@
         <v>-9.946E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+    <row r="56" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B56" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="27" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="M56" s="21" t="s">
+      <c r="E56" s="39"/>
+      <c r="M56" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N56" s="5" t="s">
@@ -4269,7 +4537,7 @@
         <v>33399</v>
       </c>
       <c r="Q56" s="9"/>
-      <c r="R56" s="21" t="s">
+      <c r="R56" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="5" t="s">
@@ -4300,16 +4568,16 @@
         <v>-1.0404999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
+    <row r="57" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="22"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4320,7 +4588,7 @@
         <v>14637</v>
       </c>
       <c r="Q57" s="9"/>
-      <c r="R57" s="22"/>
+      <c r="R57" s="41"/>
       <c r="S57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4635,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+    <row r="58" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B58" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4426,8 +4694,8 @@
         <v>3.3355000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
+    <row r="59" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
@@ -4437,23 +4705,23 @@
       <c r="E59" s="4">
         <v>8095</v>
       </c>
-      <c r="M59" s="23" t="s">
+      <c r="M59" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="24"/>
-      <c r="O59" s="27" t="s">
+      <c r="N59" s="44"/>
+      <c r="O59" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="28"/>
+      <c r="P59" s="39"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="23" t="s">
+      <c r="R59" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="S59" s="24"/>
-      <c r="T59" s="27" t="s">
+      <c r="S59" s="44"/>
+      <c r="T59" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="28"/>
+      <c r="U59" s="39"/>
       <c r="AE59" s="13" t="s">
         <v>53</v>
       </c>
@@ -4491,9 +4759,9 @@
         <v>3.3933999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="25"/>
-      <c r="N60" s="26"/>
+    <row r="60" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M60" s="45"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4501,8 +4769,8 @@
         <v>3</v>
       </c>
       <c r="Q60" s="9"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="26"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="46"/>
       <c r="T60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4528,8 +4796,8 @@
         <v>3.3354000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M61" s="21" t="s">
+    <row r="61" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M61" s="40" t="s">
         <v>1</v>
       </c>
       <c r="N61" s="5" t="s">
@@ -4542,7 +4810,7 @@
         <v>20945</v>
       </c>
       <c r="Q61" s="9"/>
-      <c r="R61" s="21" t="s">
+      <c r="R61" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
@@ -4573,8 +4841,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M62" s="22"/>
+    <row r="62" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
+      <c r="M62" s="41"/>
       <c r="N62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4585,7 +4853,7 @@
         <v>12490</v>
       </c>
       <c r="Q62" s="9"/>
-      <c r="R62" s="22"/>
+      <c r="R62" s="41"/>
       <c r="S62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4632,7 +4900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4679,20 +4947,20 @@
         <v>-9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="23" t="s">
+      <c r="R64" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="24"/>
-      <c r="T64" s="27" t="s">
+      <c r="S64" s="44"/>
+      <c r="T64" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U64" s="28"/>
+      <c r="U64" s="39"/>
       <c r="AE64" s="13" t="s">
         <v>59</v>
       </c>
@@ -4730,14 +4998,14 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="65" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="26"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="46"/>
       <c r="T65" s="6" t="s">
         <v>2</v>
       </c>
@@ -4781,13 +5049,13 @@
         <v>-9.6839999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="21" t="s">
+      <c r="R66" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -4818,13 +5086,13 @@
         <v>-8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="67" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="22"/>
+      <c r="R67" s="41"/>
       <c r="S67" s="5" t="s">
         <v>3</v>
       </c>
@@ -4853,7 +5121,7 @@
         <v>-9.2530000000000008E-3</v>
       </c>
     </row>
-    <row r="68" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -4896,7 +5164,7 @@
       </c>
       <c r="AR68" s="17"/>
     </row>
-    <row r="69" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
@@ -4920,7 +5188,7 @@
         <v>3.3933999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
@@ -4944,9 +5212,9 @@
         <v>3.3354000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1"/>
+    <row r="72" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1"/>
+    <row r="73" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD73" s="16" t="s">
         <v>57</v>
       </c>
@@ -4966,7 +5234,7 @@
         <v>-5.986E-3</v>
       </c>
     </row>
-    <row r="74" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD74" s="16" t="s">
         <v>58</v>
       </c>
@@ -4986,7 +5254,7 @@
         <v>-5.7559999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD75" s="16" t="s">
         <v>59</v>
       </c>
@@ -5006,7 +5274,7 @@
         <v>-7.803E-3</v>
       </c>
     </row>
-    <row r="76" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD76" s="16" t="s">
         <v>60</v>
       </c>
@@ -5026,7 +5294,7 @@
         <v>-8.0669999999999995E-3</v>
       </c>
     </row>
-    <row r="77" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD77" s="16" t="s">
         <v>61</v>
       </c>
@@ -5046,7 +5314,7 @@
         <v>-8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="78" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD78" s="16" t="s">
         <v>55</v>
       </c>
@@ -5066,7 +5334,7 @@
         <v>-9.2530000000000008E-3</v>
       </c>
     </row>
-    <row r="79" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AD79" s="16" t="s">
         <v>56</v>
       </c>
@@ -5086,21 +5354,21 @@
         <v>-9.4640000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
@@ -5108,7 +5376,7 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
@@ -5116,7 +5384,7 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
@@ -5124,7 +5392,7 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
       <c r="AG85" s="3"/>
@@ -5132,7 +5400,7 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
@@ -5140,7 +5408,7 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
@@ -5148,7 +5416,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
@@ -5156,7 +5424,7 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
       <c r="AG89" s="3"/>
@@ -5164,7 +5432,7 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
@@ -5172,7 +5440,7 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
@@ -5180,7 +5448,7 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
@@ -5188,7 +5456,7 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
@@ -5196,7 +5464,7 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
@@ -5204,7 +5472,7 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
@@ -5212,7 +5480,7 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
@@ -5220,7 +5488,7 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
@@ -5228,7 +5496,7 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
@@ -5236,7 +5504,7 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
@@ -5244,7 +5512,7 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
       <c r="AG100" s="3"/>
@@ -5252,7 +5520,7 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
       <c r="AG101" s="3"/>
@@ -5260,7 +5528,7 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
       <c r="AG102" s="3"/>
@@ -5268,7 +5536,7 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE103" s="3"/>
       <c r="AF103" s="3"/>
       <c r="AG103" s="3"/>
@@ -5276,7 +5544,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
       <c r="AG104" s="3"/>
@@ -5284,7 +5552,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
       <c r="AG105" s="3"/>
@@ -5292,7 +5560,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
       <c r="AG106" s="3"/>
@@ -5300,7 +5568,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
       <c r="AG107" s="3"/>
@@ -5308,7 +5576,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
@@ -5316,7 +5584,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
       <c r="AG109" s="3"/>
@@ -5324,7 +5592,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE110" s="3"/>
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
@@ -5332,7 +5600,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
       <c r="AG111" s="3"/>
@@ -5340,7 +5608,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
       <c r="AG112" s="3"/>
@@ -5348,7 +5616,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE113" s="3"/>
       <c r="AF113" s="3"/>
       <c r="AG113" s="3"/>
@@ -5356,7 +5624,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
       <c r="AG114" s="3"/>
@@ -5364,7 +5632,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
       <c r="AG115" s="3"/>
@@ -5372,7 +5640,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE116" s="3"/>
       <c r="AF116" s="3"/>
       <c r="AG116" s="3"/>
@@ -5380,7 +5648,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
       <c r="AG117" s="3"/>
@@ -5388,7 +5656,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
       <c r="AG118" s="3"/>
@@ -5396,7 +5664,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
     </row>
-    <row r="119" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
       <c r="AG119" s="3"/>
@@ -5404,7 +5672,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
       <c r="AG120" s="3"/>
@@ -5412,7 +5680,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
       <c r="AG121" s="3"/>
@@ -5420,7 +5688,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
       <c r="AG122" s="3"/>
@@ -5428,7 +5696,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
       <c r="AG123" s="3"/>
@@ -5436,7 +5704,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
       <c r="AG124" s="3"/>
@@ -5444,7 +5712,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
       <c r="AG125" s="3"/>
@@ -5452,7 +5720,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
       <c r="AG126" s="3"/>
@@ -5460,7 +5728,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE127" s="3"/>
       <c r="AF127" s="3"/>
       <c r="AG127" s="3"/>
@@ -5468,7 +5736,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE128" s="3"/>
       <c r="AF128" s="3"/>
       <c r="AG128" s="3"/>
@@ -5476,7 +5744,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE129" s="3"/>
       <c r="AF129" s="3"/>
       <c r="AG129" s="3"/>
@@ -5484,7 +5752,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE130" s="3"/>
       <c r="AF130" s="3"/>
       <c r="AG130" s="3"/>
@@ -5492,7 +5760,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE131" s="3"/>
       <c r="AF131" s="3"/>
       <c r="AG131" s="3"/>
@@ -5500,7 +5768,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE132" s="3"/>
       <c r="AF132" s="3"/>
       <c r="AG132" s="3"/>
@@ -5508,7 +5776,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE133" s="3"/>
       <c r="AF133" s="3"/>
       <c r="AG133" s="3"/>
@@ -5516,7 +5784,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE134" s="3"/>
       <c r="AF134" s="3"/>
       <c r="AG134" s="3"/>
@@ -5524,7 +5792,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE135" s="3"/>
       <c r="AF135" s="3"/>
       <c r="AG135" s="3"/>
@@ -5532,7 +5800,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE136" s="3"/>
       <c r="AF136" s="3"/>
       <c r="AG136" s="3"/>
@@ -5540,7 +5808,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE137" s="3"/>
       <c r="AF137" s="3"/>
       <c r="AG137" s="3"/>
@@ -5548,7 +5816,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE138" s="3"/>
       <c r="AF138" s="3"/>
       <c r="AG138" s="3"/>
@@ -5556,7 +5824,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE139" s="3"/>
       <c r="AF139" s="3"/>
       <c r="AG139" s="3"/>
@@ -5564,7 +5832,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE140" s="3"/>
       <c r="AF140" s="3"/>
       <c r="AG140" s="3"/>
@@ -5572,7 +5840,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE141" s="3"/>
       <c r="AF141" s="3"/>
       <c r="AG141" s="3"/>
@@ -5580,7 +5848,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
@@ -5588,7 +5856,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
@@ -5596,7 +5864,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
       <c r="AG144" s="3"/>
@@ -5604,7 +5872,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
       <c r="AG145" s="3"/>
@@ -5612,7 +5880,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
       <c r="AG146" s="3"/>
@@ -5620,7 +5888,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
       <c r="AG147" s="3"/>
@@ -5628,7 +5896,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
       <c r="AG148" s="3"/>
@@ -5636,7 +5904,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
       <c r="AG149" s="3"/>
@@ -5644,7 +5912,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE150" s="3"/>
       <c r="AF150" s="3"/>
       <c r="AG150" s="3"/>
@@ -5652,7 +5920,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE151" s="3"/>
       <c r="AF151" s="3"/>
       <c r="AG151" s="3"/>
@@ -5660,7 +5928,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
     </row>
-    <row r="152" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE152" s="3"/>
       <c r="AF152" s="3"/>
       <c r="AG152" s="3"/>
@@ -5668,7 +5936,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE153" s="3"/>
       <c r="AF153" s="3"/>
       <c r="AG153" s="3"/>
@@ -5676,7 +5944,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
     </row>
-    <row r="154" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
       <c r="AG154" s="3"/>
@@ -5684,7 +5952,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
     </row>
-    <row r="155" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
       <c r="AG155" s="3"/>
@@ -5692,7 +5960,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
     </row>
-    <row r="156" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
       <c r="AG156" s="3"/>
@@ -5700,7 +5968,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
       <c r="AG157" s="3"/>
@@ -5708,7 +5976,7 @@
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
       <c r="AG158" s="3"/>
@@ -5716,7 +5984,7 @@
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE159" s="3"/>
       <c r="AF159" s="3"/>
       <c r="AG159" s="3"/>
@@ -5724,7 +5992,7 @@
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE160" s="3"/>
       <c r="AF160" s="3"/>
       <c r="AG160" s="3"/>
@@ -5732,7 +6000,7 @@
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
     </row>
-    <row r="161" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE161" s="3"/>
       <c r="AF161" s="3"/>
       <c r="AG161" s="3"/>
@@ -5740,7 +6008,7 @@
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE162" s="3"/>
       <c r="AF162" s="3"/>
       <c r="AG162" s="3"/>
@@ -5748,7 +6016,7 @@
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE163" s="3"/>
       <c r="AF163" s="3"/>
       <c r="AG163" s="3"/>
@@ -5756,7 +6024,7 @@
       <c r="AI163" s="3"/>
       <c r="AJ163" s="3"/>
     </row>
-    <row r="164" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE164" s="3"/>
       <c r="AF164" s="3"/>
       <c r="AG164" s="3"/>
@@ -5764,7 +6032,7 @@
       <c r="AI164" s="3"/>
       <c r="AJ164" s="3"/>
     </row>
-    <row r="165" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE165" s="3"/>
       <c r="AF165" s="3"/>
       <c r="AG165" s="3"/>
@@ -5772,7 +6040,7 @@
       <c r="AI165" s="3"/>
       <c r="AJ165" s="3"/>
     </row>
-    <row r="166" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE166" s="3"/>
       <c r="AF166" s="3"/>
       <c r="AG166" s="3"/>
@@ -5780,7 +6048,7 @@
       <c r="AI166" s="3"/>
       <c r="AJ166" s="3"/>
     </row>
-    <row r="167" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE167" s="3"/>
       <c r="AF167" s="3"/>
       <c r="AG167" s="3"/>
@@ -5788,7 +6056,7 @@
       <c r="AI167" s="3"/>
       <c r="AJ167" s="3"/>
     </row>
-    <row r="168" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE168" s="3"/>
       <c r="AF168" s="3"/>
       <c r="AG168" s="3"/>
@@ -5796,7 +6064,7 @@
       <c r="AI168" s="3"/>
       <c r="AJ168" s="3"/>
     </row>
-    <row r="169" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE169" s="3"/>
       <c r="AF169" s="3"/>
       <c r="AG169" s="3"/>
@@ -5804,7 +6072,7 @@
       <c r="AI169" s="3"/>
       <c r="AJ169" s="3"/>
     </row>
-    <row r="170" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE170" s="3"/>
       <c r="AF170" s="3"/>
       <c r="AG170" s="3"/>
@@ -5812,7 +6080,7 @@
       <c r="AI170" s="3"/>
       <c r="AJ170" s="3"/>
     </row>
-    <row r="171" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE171" s="3"/>
       <c r="AF171" s="3"/>
       <c r="AG171" s="3"/>
@@ -5820,7 +6088,7 @@
       <c r="AI171" s="3"/>
       <c r="AJ171" s="3"/>
     </row>
-    <row r="172" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE172" s="3"/>
       <c r="AF172" s="3"/>
       <c r="AG172" s="3"/>
@@ -5828,7 +6096,7 @@
       <c r="AI172" s="3"/>
       <c r="AJ172" s="3"/>
     </row>
-    <row r="173" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE173" s="3"/>
       <c r="AF173" s="3"/>
       <c r="AG173" s="3"/>
@@ -5836,7 +6104,7 @@
       <c r="AI173" s="3"/>
       <c r="AJ173" s="3"/>
     </row>
-    <row r="174" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE174" s="3"/>
       <c r="AF174" s="3"/>
       <c r="AG174" s="3"/>
@@ -5844,7 +6112,7 @@
       <c r="AI174" s="3"/>
       <c r="AJ174" s="3"/>
     </row>
-    <row r="175" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE175" s="3"/>
       <c r="AF175" s="3"/>
       <c r="AG175" s="3"/>
@@ -5852,7 +6120,7 @@
       <c r="AI175" s="3"/>
       <c r="AJ175" s="3"/>
     </row>
-    <row r="176" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE176" s="3"/>
       <c r="AF176" s="3"/>
       <c r="AG176" s="3"/>
@@ -5860,7 +6128,7 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
     </row>
-    <row r="177" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE177" s="3"/>
       <c r="AF177" s="3"/>
       <c r="AG177" s="3"/>
@@ -5868,7 +6136,7 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
     </row>
-    <row r="178" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE178" s="3"/>
       <c r="AF178" s="3"/>
       <c r="AG178" s="3"/>
@@ -5876,7 +6144,7 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
     </row>
-    <row r="179" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE179" s="3"/>
       <c r="AF179" s="3"/>
       <c r="AG179" s="3"/>
@@ -5884,7 +6152,7 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
     </row>
-    <row r="180" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE180" s="3"/>
       <c r="AF180" s="3"/>
       <c r="AG180" s="3"/>
@@ -5892,7 +6160,7 @@
       <c r="AI180" s="3"/>
       <c r="AJ180" s="3"/>
     </row>
-    <row r="181" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE181" s="3"/>
       <c r="AF181" s="3"/>
       <c r="AG181" s="3"/>
@@ -5900,7 +6168,7 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
     </row>
-    <row r="182" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE182" s="3"/>
       <c r="AF182" s="3"/>
       <c r="AG182" s="3"/>
@@ -5908,7 +6176,7 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
     </row>
-    <row r="183" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE183" s="3"/>
       <c r="AF183" s="3"/>
       <c r="AG183" s="3"/>
@@ -5916,7 +6184,7 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
     </row>
-    <row r="184" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE184" s="3"/>
       <c r="AF184" s="3"/>
       <c r="AG184" s="3"/>
@@ -5924,7 +6192,7 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
     </row>
-    <row r="185" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE185" s="3"/>
       <c r="AF185" s="3"/>
       <c r="AG185" s="3"/>
@@ -5932,7 +6200,7 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
     </row>
-    <row r="186" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE186" s="3"/>
       <c r="AF186" s="3"/>
       <c r="AG186" s="3"/>
@@ -5940,7 +6208,7 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
     </row>
-    <row r="187" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE187" s="3"/>
       <c r="AF187" s="3"/>
       <c r="AG187" s="3"/>
@@ -5948,7 +6216,7 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
     </row>
-    <row r="188" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE188" s="3"/>
       <c r="AF188" s="3"/>
       <c r="AG188" s="3"/>
@@ -5956,7 +6224,7 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
     </row>
-    <row r="189" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
       <c r="AG189" s="3"/>
@@ -5964,7 +6232,7 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
     </row>
-    <row r="190" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE190" s="3"/>
       <c r="AF190" s="3"/>
       <c r="AG190" s="3"/>
@@ -5972,7 +6240,7 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
     </row>
-    <row r="191" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE191" s="3"/>
       <c r="AF191" s="3"/>
       <c r="AG191" s="3"/>
@@ -5980,7 +6248,7 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
     </row>
-    <row r="192" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE192" s="3"/>
       <c r="AF192" s="3"/>
       <c r="AG192" s="3"/>
@@ -5988,7 +6256,7 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
     </row>
-    <row r="193" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE193" s="3"/>
       <c r="AF193" s="3"/>
       <c r="AG193" s="3"/>
@@ -5996,7 +6264,7 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
     </row>
-    <row r="194" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE194" s="3"/>
       <c r="AF194" s="3"/>
       <c r="AG194" s="3"/>
@@ -6004,7 +6272,7 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
     </row>
-    <row r="195" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE195" s="3"/>
       <c r="AF195" s="3"/>
       <c r="AG195" s="3"/>
@@ -6012,7 +6280,7 @@
       <c r="AI195" s="3"/>
       <c r="AJ195" s="3"/>
     </row>
-    <row r="196" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE196" s="3"/>
       <c r="AF196" s="3"/>
       <c r="AG196" s="3"/>
@@ -6020,7 +6288,7 @@
       <c r="AI196" s="3"/>
       <c r="AJ196" s="3"/>
     </row>
-    <row r="197" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE197" s="3"/>
       <c r="AF197" s="3"/>
       <c r="AG197" s="3"/>
@@ -6028,7 +6296,7 @@
       <c r="AI197" s="3"/>
       <c r="AJ197" s="3"/>
     </row>
-    <row r="198" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE198" s="3"/>
       <c r="AF198" s="3"/>
       <c r="AG198" s="3"/>
@@ -6036,7 +6304,7 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
     </row>
-    <row r="199" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE199" s="3"/>
       <c r="AF199" s="3"/>
       <c r="AG199" s="3"/>
@@ -6044,7 +6312,7 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
     </row>
-    <row r="200" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE200" s="3"/>
       <c r="AF200" s="3"/>
       <c r="AG200" s="3"/>
@@ -6052,7 +6320,7 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
     </row>
-    <row r="201" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE201" s="3"/>
       <c r="AF201" s="3"/>
       <c r="AG201" s="3"/>
@@ -6060,7 +6328,7 @@
       <c r="AI201" s="3"/>
       <c r="AJ201" s="3"/>
     </row>
-    <row r="202" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE202" s="3"/>
       <c r="AF202" s="3"/>
       <c r="AG202" s="3"/>
@@ -6068,7 +6336,7 @@
       <c r="AI202" s="3"/>
       <c r="AJ202" s="3"/>
     </row>
-    <row r="203" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE203" s="3"/>
       <c r="AF203" s="3"/>
       <c r="AG203" s="3"/>
@@ -6076,7 +6344,7 @@
       <c r="AI203" s="3"/>
       <c r="AJ203" s="3"/>
     </row>
-    <row r="204" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE204" s="3"/>
       <c r="AF204" s="3"/>
       <c r="AG204" s="3"/>
@@ -6084,7 +6352,7 @@
       <c r="AI204" s="3"/>
       <c r="AJ204" s="3"/>
     </row>
-    <row r="205" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE205" s="3"/>
       <c r="AF205" s="3"/>
       <c r="AG205" s="3"/>
@@ -6092,7 +6360,7 @@
       <c r="AI205" s="3"/>
       <c r="AJ205" s="3"/>
     </row>
-    <row r="206" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE206" s="3"/>
       <c r="AF206" s="3"/>
       <c r="AG206" s="3"/>
@@ -6100,7 +6368,7 @@
       <c r="AI206" s="3"/>
       <c r="AJ206" s="3"/>
     </row>
-    <row r="207" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE207" s="3"/>
       <c r="AF207" s="3"/>
       <c r="AG207" s="3"/>
@@ -6108,7 +6376,7 @@
       <c r="AI207" s="3"/>
       <c r="AJ207" s="3"/>
     </row>
-    <row r="208" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE208" s="3"/>
       <c r="AF208" s="3"/>
       <c r="AG208" s="3"/>
@@ -6116,7 +6384,7 @@
       <c r="AI208" s="3"/>
       <c r="AJ208" s="3"/>
     </row>
-    <row r="209" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE209" s="3"/>
       <c r="AF209" s="3"/>
       <c r="AG209" s="3"/>
@@ -6124,7 +6392,7 @@
       <c r="AI209" s="3"/>
       <c r="AJ209" s="3"/>
     </row>
-    <row r="210" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE210" s="3"/>
       <c r="AF210" s="3"/>
       <c r="AG210" s="3"/>
@@ -6132,7 +6400,7 @@
       <c r="AI210" s="3"/>
       <c r="AJ210" s="3"/>
     </row>
-    <row r="211" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE211" s="3"/>
       <c r="AF211" s="3"/>
       <c r="AG211" s="3"/>
@@ -6140,7 +6408,7 @@
       <c r="AI211" s="3"/>
       <c r="AJ211" s="3"/>
     </row>
-    <row r="212" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE212" s="3"/>
       <c r="AF212" s="3"/>
       <c r="AG212" s="3"/>
@@ -6148,7 +6416,7 @@
       <c r="AI212" s="3"/>
       <c r="AJ212" s="3"/>
     </row>
-    <row r="213" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE213" s="3"/>
       <c r="AF213" s="3"/>
       <c r="AG213" s="3"/>
@@ -6156,7 +6424,7 @@
       <c r="AI213" s="3"/>
       <c r="AJ213" s="3"/>
     </row>
-    <row r="214" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE214" s="3"/>
       <c r="AF214" s="3"/>
       <c r="AG214" s="3"/>
@@ -6164,7 +6432,7 @@
       <c r="AI214" s="3"/>
       <c r="AJ214" s="3"/>
     </row>
-    <row r="215" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE215" s="3"/>
       <c r="AF215" s="3"/>
       <c r="AG215" s="3"/>
@@ -6172,7 +6440,7 @@
       <c r="AI215" s="3"/>
       <c r="AJ215" s="3"/>
     </row>
-    <row r="216" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE216" s="3"/>
       <c r="AF216" s="3"/>
       <c r="AG216" s="3"/>
@@ -6180,7 +6448,7 @@
       <c r="AI216" s="3"/>
       <c r="AJ216" s="3"/>
     </row>
-    <row r="217" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE217" s="3"/>
       <c r="AF217" s="3"/>
       <c r="AG217" s="3"/>
@@ -6188,7 +6456,7 @@
       <c r="AI217" s="3"/>
       <c r="AJ217" s="3"/>
     </row>
-    <row r="218" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE218" s="3"/>
       <c r="AF218" s="3"/>
       <c r="AG218" s="3"/>
@@ -6196,7 +6464,7 @@
       <c r="AI218" s="3"/>
       <c r="AJ218" s="3"/>
     </row>
-    <row r="219" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE219" s="3"/>
       <c r="AF219" s="3"/>
       <c r="AG219" s="3"/>
@@ -6204,7 +6472,7 @@
       <c r="AI219" s="3"/>
       <c r="AJ219" s="3"/>
     </row>
-    <row r="220" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE220" s="3"/>
       <c r="AF220" s="3"/>
       <c r="AG220" s="3"/>
@@ -6212,7 +6480,7 @@
       <c r="AI220" s="3"/>
       <c r="AJ220" s="3"/>
     </row>
-    <row r="221" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE221" s="3"/>
       <c r="AF221" s="3"/>
       <c r="AG221" s="3"/>
@@ -6220,7 +6488,7 @@
       <c r="AI221" s="3"/>
       <c r="AJ221" s="3"/>
     </row>
-    <row r="222" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE222" s="3"/>
       <c r="AF222" s="3"/>
       <c r="AG222" s="3"/>
@@ -6228,7 +6496,7 @@
       <c r="AI222" s="3"/>
       <c r="AJ222" s="3"/>
     </row>
-    <row r="223" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE223" s="3"/>
       <c r="AF223" s="3"/>
       <c r="AG223" s="3"/>
@@ -6236,7 +6504,7 @@
       <c r="AI223" s="3"/>
       <c r="AJ223" s="3"/>
     </row>
-    <row r="224" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE224" s="3"/>
       <c r="AF224" s="3"/>
       <c r="AG224" s="3"/>
@@ -6244,7 +6512,7 @@
       <c r="AI224" s="3"/>
       <c r="AJ224" s="3"/>
     </row>
-    <row r="225" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE225" s="3"/>
       <c r="AF225" s="3"/>
       <c r="AG225" s="3"/>
@@ -6252,7 +6520,7 @@
       <c r="AI225" s="3"/>
       <c r="AJ225" s="3"/>
     </row>
-    <row r="226" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE226" s="3"/>
       <c r="AF226" s="3"/>
       <c r="AG226" s="3"/>
@@ -6260,7 +6528,7 @@
       <c r="AI226" s="3"/>
       <c r="AJ226" s="3"/>
     </row>
-    <row r="227" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE227" s="3"/>
       <c r="AF227" s="3"/>
       <c r="AG227" s="3"/>
@@ -6268,7 +6536,7 @@
       <c r="AI227" s="3"/>
       <c r="AJ227" s="3"/>
     </row>
-    <row r="228" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE228" s="3"/>
       <c r="AF228" s="3"/>
       <c r="AG228" s="3"/>
@@ -6276,7 +6544,7 @@
       <c r="AI228" s="3"/>
       <c r="AJ228" s="3"/>
     </row>
-    <row r="229" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE229" s="3"/>
       <c r="AF229" s="3"/>
       <c r="AG229" s="3"/>
@@ -6284,7 +6552,7 @@
       <c r="AI229" s="3"/>
       <c r="AJ229" s="3"/>
     </row>
-    <row r="230" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE230" s="3"/>
       <c r="AF230" s="3"/>
       <c r="AG230" s="3"/>
@@ -6292,7 +6560,7 @@
       <c r="AI230" s="3"/>
       <c r="AJ230" s="3"/>
     </row>
-    <row r="231" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE231" s="3"/>
       <c r="AF231" s="3"/>
       <c r="AG231" s="3"/>
@@ -6300,7 +6568,7 @@
       <c r="AI231" s="3"/>
       <c r="AJ231" s="3"/>
     </row>
-    <row r="232" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE232" s="3"/>
       <c r="AF232" s="3"/>
       <c r="AG232" s="3"/>
@@ -6308,7 +6576,7 @@
       <c r="AI232" s="3"/>
       <c r="AJ232" s="3"/>
     </row>
-    <row r="233" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE233" s="3"/>
       <c r="AF233" s="3"/>
       <c r="AG233" s="3"/>
@@ -6316,7 +6584,7 @@
       <c r="AI233" s="3"/>
       <c r="AJ233" s="3"/>
     </row>
-    <row r="234" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE234" s="3"/>
       <c r="AF234" s="3"/>
       <c r="AG234" s="3"/>
@@ -6324,7 +6592,7 @@
       <c r="AI234" s="3"/>
       <c r="AJ234" s="3"/>
     </row>
-    <row r="235" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE235" s="3"/>
       <c r="AF235" s="3"/>
       <c r="AG235" s="3"/>
@@ -6332,7 +6600,7 @@
       <c r="AI235" s="3"/>
       <c r="AJ235" s="3"/>
     </row>
-    <row r="236" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE236" s="3"/>
       <c r="AF236" s="3"/>
       <c r="AG236" s="3"/>
@@ -6340,7 +6608,7 @@
       <c r="AI236" s="3"/>
       <c r="AJ236" s="3"/>
     </row>
-    <row r="237" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE237" s="3"/>
       <c r="AF237" s="3"/>
       <c r="AG237" s="3"/>
@@ -6348,7 +6616,7 @@
       <c r="AI237" s="3"/>
       <c r="AJ237" s="3"/>
     </row>
-    <row r="238" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE238" s="3"/>
       <c r="AF238" s="3"/>
       <c r="AG238" s="3"/>
@@ -6356,7 +6624,7 @@
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
     </row>
-    <row r="239" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE239" s="3"/>
       <c r="AF239" s="3"/>
       <c r="AG239" s="3"/>
@@ -6364,7 +6632,7 @@
       <c r="AI239" s="3"/>
       <c r="AJ239" s="3"/>
     </row>
-    <row r="240" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE240" s="3"/>
       <c r="AF240" s="3"/>
       <c r="AG240" s="3"/>
@@ -6372,7 +6640,7 @@
       <c r="AI240" s="3"/>
       <c r="AJ240" s="3"/>
     </row>
-    <row r="241" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE241" s="3"/>
       <c r="AF241" s="3"/>
       <c r="AG241" s="3"/>
@@ -6380,7 +6648,7 @@
       <c r="AI241" s="3"/>
       <c r="AJ241" s="3"/>
     </row>
-    <row r="242" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE242" s="3"/>
       <c r="AF242" s="3"/>
       <c r="AG242" s="3"/>
@@ -6388,7 +6656,7 @@
       <c r="AI242" s="3"/>
       <c r="AJ242" s="3"/>
     </row>
-    <row r="243" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE243" s="3"/>
       <c r="AF243" s="3"/>
       <c r="AG243" s="3"/>
@@ -6396,7 +6664,7 @@
       <c r="AI243" s="3"/>
       <c r="AJ243" s="3"/>
     </row>
-    <row r="244" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE244" s="3"/>
       <c r="AF244" s="3"/>
       <c r="AG244" s="3"/>
@@ -6404,7 +6672,7 @@
       <c r="AI244" s="3"/>
       <c r="AJ244" s="3"/>
     </row>
-    <row r="245" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE245" s="3"/>
       <c r="AF245" s="3"/>
       <c r="AG245" s="3"/>
@@ -6412,7 +6680,7 @@
       <c r="AI245" s="3"/>
       <c r="AJ245" s="3"/>
     </row>
-    <row r="246" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE246" s="3"/>
       <c r="AF246" s="3"/>
       <c r="AG246" s="3"/>
@@ -6420,7 +6688,7 @@
       <c r="AI246" s="3"/>
       <c r="AJ246" s="3"/>
     </row>
-    <row r="247" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE247" s="3"/>
       <c r="AF247" s="3"/>
       <c r="AG247" s="3"/>
@@ -6428,7 +6696,7 @@
       <c r="AI247" s="3"/>
       <c r="AJ247" s="3"/>
     </row>
-    <row r="248" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE248" s="3"/>
       <c r="AF248" s="3"/>
       <c r="AG248" s="3"/>
@@ -6436,7 +6704,7 @@
       <c r="AI248" s="3"/>
       <c r="AJ248" s="3"/>
     </row>
-    <row r="249" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE249" s="3"/>
       <c r="AF249" s="3"/>
       <c r="AG249" s="3"/>
@@ -6444,7 +6712,7 @@
       <c r="AI249" s="3"/>
       <c r="AJ249" s="3"/>
     </row>
-    <row r="250" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE250" s="3"/>
       <c r="AF250" s="3"/>
       <c r="AG250" s="3"/>
@@ -6452,7 +6720,7 @@
       <c r="AI250" s="3"/>
       <c r="AJ250" s="3"/>
     </row>
-    <row r="251" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE251" s="3"/>
       <c r="AF251" s="3"/>
       <c r="AG251" s="3"/>
@@ -6460,7 +6728,7 @@
       <c r="AI251" s="3"/>
       <c r="AJ251" s="3"/>
     </row>
-    <row r="252" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE252" s="3"/>
       <c r="AF252" s="3"/>
       <c r="AG252" s="3"/>
@@ -6468,7 +6736,7 @@
       <c r="AI252" s="3"/>
       <c r="AJ252" s="3"/>
     </row>
-    <row r="253" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE253" s="3"/>
       <c r="AF253" s="3"/>
       <c r="AG253" s="3"/>
@@ -6476,7 +6744,7 @@
       <c r="AI253" s="3"/>
       <c r="AJ253" s="3"/>
     </row>
-    <row r="254" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE254" s="3"/>
       <c r="AF254" s="3"/>
       <c r="AG254" s="3"/>
@@ -6484,7 +6752,7 @@
       <c r="AI254" s="3"/>
       <c r="AJ254" s="3"/>
     </row>
-    <row r="255" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE255" s="3"/>
       <c r="AF255" s="3"/>
       <c r="AG255" s="3"/>
@@ -6492,7 +6760,7 @@
       <c r="AI255" s="3"/>
       <c r="AJ255" s="3"/>
     </row>
-    <row r="256" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE256" s="3"/>
       <c r="AF256" s="3"/>
       <c r="AG256" s="3"/>
@@ -6500,7 +6768,7 @@
       <c r="AI256" s="3"/>
       <c r="AJ256" s="3"/>
     </row>
-    <row r="257" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE257" s="3"/>
       <c r="AF257" s="3"/>
       <c r="AG257" s="3"/>
@@ -6508,7 +6776,7 @@
       <c r="AI257" s="3"/>
       <c r="AJ257" s="3"/>
     </row>
-    <row r="258" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE258" s="3"/>
       <c r="AF258" s="3"/>
       <c r="AG258" s="3"/>
@@ -6516,7 +6784,7 @@
       <c r="AI258" s="3"/>
       <c r="AJ258" s="3"/>
     </row>
-    <row r="259" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE259" s="3"/>
       <c r="AF259" s="3"/>
       <c r="AG259" s="3"/>
@@ -6524,7 +6792,7 @@
       <c r="AI259" s="3"/>
       <c r="AJ259" s="3"/>
     </row>
-    <row r="260" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE260" s="3"/>
       <c r="AF260" s="3"/>
       <c r="AG260" s="3"/>
@@ -6532,7 +6800,7 @@
       <c r="AI260" s="3"/>
       <c r="AJ260" s="3"/>
     </row>
-    <row r="261" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE261" s="3"/>
       <c r="AF261" s="3"/>
       <c r="AG261" s="3"/>
@@ -6540,7 +6808,7 @@
       <c r="AI261" s="3"/>
       <c r="AJ261" s="3"/>
     </row>
-    <row r="262" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE262" s="3"/>
       <c r="AF262" s="3"/>
       <c r="AG262" s="3"/>
@@ -6548,7 +6816,7 @@
       <c r="AI262" s="3"/>
       <c r="AJ262" s="3"/>
     </row>
-    <row r="263" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE263" s="3"/>
       <c r="AF263" s="3"/>
       <c r="AG263" s="3"/>
@@ -6556,7 +6824,7 @@
       <c r="AI263" s="3"/>
       <c r="AJ263" s="3"/>
     </row>
-    <row r="264" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE264" s="3"/>
       <c r="AF264" s="3"/>
       <c r="AG264" s="3"/>
@@ -6564,7 +6832,7 @@
       <c r="AI264" s="3"/>
       <c r="AJ264" s="3"/>
     </row>
-    <row r="265" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE265" s="3"/>
       <c r="AF265" s="3"/>
       <c r="AG265" s="3"/>
@@ -6572,7 +6840,7 @@
       <c r="AI265" s="3"/>
       <c r="AJ265" s="3"/>
     </row>
-    <row r="266" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE266" s="3"/>
       <c r="AF266" s="3"/>
       <c r="AG266" s="3"/>
@@ -6580,7 +6848,7 @@
       <c r="AI266" s="3"/>
       <c r="AJ266" s="3"/>
     </row>
-    <row r="267" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE267" s="3"/>
       <c r="AF267" s="3"/>
       <c r="AG267" s="3"/>
@@ -6588,7 +6856,7 @@
       <c r="AI267" s="3"/>
       <c r="AJ267" s="3"/>
     </row>
-    <row r="268" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE268" s="3"/>
       <c r="AF268" s="3"/>
       <c r="AG268" s="3"/>
@@ -6596,7 +6864,7 @@
       <c r="AI268" s="3"/>
       <c r="AJ268" s="3"/>
     </row>
-    <row r="269" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE269" s="3"/>
       <c r="AF269" s="3"/>
       <c r="AG269" s="3"/>
@@ -6604,7 +6872,7 @@
       <c r="AI269" s="3"/>
       <c r="AJ269" s="3"/>
     </row>
-    <row r="270" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE270" s="3"/>
       <c r="AF270" s="3"/>
       <c r="AG270" s="3"/>
@@ -6612,7 +6880,7 @@
       <c r="AI270" s="3"/>
       <c r="AJ270" s="3"/>
     </row>
-    <row r="271" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE271" s="3"/>
       <c r="AF271" s="3"/>
       <c r="AG271" s="3"/>
@@ -6620,7 +6888,7 @@
       <c r="AI271" s="3"/>
       <c r="AJ271" s="3"/>
     </row>
-    <row r="272" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE272" s="3"/>
       <c r="AF272" s="3"/>
       <c r="AG272" s="3"/>
@@ -6628,7 +6896,7 @@
       <c r="AI272" s="3"/>
       <c r="AJ272" s="3"/>
     </row>
-    <row r="273" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE273" s="3"/>
       <c r="AF273" s="3"/>
       <c r="AG273" s="3"/>
@@ -6636,7 +6904,7 @@
       <c r="AI273" s="3"/>
       <c r="AJ273" s="3"/>
     </row>
-    <row r="274" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE274" s="3"/>
       <c r="AF274" s="3"/>
       <c r="AG274" s="3"/>
@@ -6644,7 +6912,7 @@
       <c r="AI274" s="3"/>
       <c r="AJ274" s="3"/>
     </row>
-    <row r="275" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE275" s="3"/>
       <c r="AF275" s="3"/>
       <c r="AG275" s="3"/>
@@ -6652,7 +6920,7 @@
       <c r="AI275" s="3"/>
       <c r="AJ275" s="3"/>
     </row>
-    <row r="276" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE276" s="3"/>
       <c r="AF276" s="3"/>
       <c r="AG276" s="3"/>
@@ -6660,7 +6928,7 @@
       <c r="AI276" s="3"/>
       <c r="AJ276" s="3"/>
     </row>
-    <row r="277" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE277" s="3"/>
       <c r="AF277" s="3"/>
       <c r="AG277" s="3"/>
@@ -6668,7 +6936,7 @@
       <c r="AI277" s="3"/>
       <c r="AJ277" s="3"/>
     </row>
-    <row r="278" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE278" s="3"/>
       <c r="AF278" s="3"/>
       <c r="AG278" s="3"/>
@@ -6676,7 +6944,7 @@
       <c r="AI278" s="3"/>
       <c r="AJ278" s="3"/>
     </row>
-    <row r="279" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE279" s="3"/>
       <c r="AF279" s="3"/>
       <c r="AG279" s="3"/>
@@ -6684,7 +6952,7 @@
       <c r="AI279" s="3"/>
       <c r="AJ279" s="3"/>
     </row>
-    <row r="280" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE280" s="3"/>
       <c r="AF280" s="3"/>
       <c r="AG280" s="3"/>
@@ -6692,7 +6960,7 @@
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
     </row>
-    <row r="281" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE281" s="3"/>
       <c r="AF281" s="3"/>
       <c r="AG281" s="3"/>
@@ -6700,7 +6968,7 @@
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
     </row>
-    <row r="282" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE282" s="3"/>
       <c r="AF282" s="3"/>
       <c r="AG282" s="3"/>
@@ -6708,7 +6976,7 @@
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
     </row>
-    <row r="283" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE283" s="3"/>
       <c r="AF283" s="3"/>
       <c r="AG283" s="3"/>
@@ -6716,7 +6984,7 @@
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
     </row>
-    <row r="284" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE284" s="3"/>
       <c r="AF284" s="3"/>
       <c r="AG284" s="3"/>
@@ -6724,7 +6992,7 @@
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
     </row>
-    <row r="285" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE285" s="3"/>
       <c r="AF285" s="3"/>
       <c r="AG285" s="3"/>
@@ -6732,7 +7000,7 @@
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
     </row>
-    <row r="286" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE286" s="3"/>
       <c r="AF286" s="3"/>
       <c r="AG286" s="3"/>
@@ -6740,7 +7008,7 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
     </row>
-    <row r="287" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE287" s="3"/>
       <c r="AF287" s="3"/>
       <c r="AG287" s="3"/>
@@ -6748,7 +7016,7 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
     </row>
-    <row r="288" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE288" s="3"/>
       <c r="AF288" s="3"/>
       <c r="AG288" s="3"/>
@@ -6756,7 +7024,7 @@
       <c r="AI288" s="3"/>
       <c r="AJ288" s="3"/>
     </row>
-    <row r="289" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE289" s="3"/>
       <c r="AF289" s="3"/>
       <c r="AG289" s="3"/>
@@ -6764,7 +7032,7 @@
       <c r="AI289" s="3"/>
       <c r="AJ289" s="3"/>
     </row>
-    <row r="290" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE290" s="3"/>
       <c r="AF290" s="3"/>
       <c r="AG290" s="3"/>
@@ -6772,7 +7040,7 @@
       <c r="AI290" s="3"/>
       <c r="AJ290" s="3"/>
     </row>
-    <row r="291" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE291" s="3"/>
       <c r="AF291" s="3"/>
       <c r="AG291" s="3"/>
@@ -6780,7 +7048,7 @@
       <c r="AI291" s="3"/>
       <c r="AJ291" s="3"/>
     </row>
-    <row r="292" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE292" s="3"/>
       <c r="AF292" s="3"/>
       <c r="AG292" s="3"/>
@@ -6788,7 +7056,7 @@
       <c r="AI292" s="3"/>
       <c r="AJ292" s="3"/>
     </row>
-    <row r="293" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE293" s="3"/>
       <c r="AF293" s="3"/>
       <c r="AG293" s="3"/>
@@ -6796,7 +7064,7 @@
       <c r="AI293" s="3"/>
       <c r="AJ293" s="3"/>
     </row>
-    <row r="294" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE294" s="3"/>
       <c r="AF294" s="3"/>
       <c r="AG294" s="3"/>
@@ -6804,7 +7072,7 @@
       <c r="AI294" s="3"/>
       <c r="AJ294" s="3"/>
     </row>
-    <row r="295" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE295" s="3"/>
       <c r="AF295" s="3"/>
       <c r="AG295" s="3"/>
@@ -6812,7 +7080,7 @@
       <c r="AI295" s="3"/>
       <c r="AJ295" s="3"/>
     </row>
-    <row r="296" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE296" s="3"/>
       <c r="AF296" s="3"/>
       <c r="AG296" s="3"/>
@@ -6820,7 +7088,7 @@
       <c r="AI296" s="3"/>
       <c r="AJ296" s="3"/>
     </row>
-    <row r="297" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE297" s="3"/>
       <c r="AF297" s="3"/>
       <c r="AG297" s="3"/>
@@ -6828,7 +7096,7 @@
       <c r="AI297" s="3"/>
       <c r="AJ297" s="3"/>
     </row>
-    <row r="298" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE298" s="3"/>
       <c r="AF298" s="3"/>
       <c r="AG298" s="3"/>
@@ -6836,7 +7104,7 @@
       <c r="AI298" s="3"/>
       <c r="AJ298" s="3"/>
     </row>
-    <row r="299" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE299" s="3"/>
       <c r="AF299" s="3"/>
       <c r="AG299" s="3"/>
@@ -6844,7 +7112,7 @@
       <c r="AI299" s="3"/>
       <c r="AJ299" s="3"/>
     </row>
-    <row r="300" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE300" s="3"/>
       <c r="AF300" s="3"/>
       <c r="AG300" s="3"/>
@@ -6852,7 +7120,7 @@
       <c r="AI300" s="3"/>
       <c r="AJ300" s="3"/>
     </row>
-    <row r="301" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE301" s="3"/>
       <c r="AF301" s="3"/>
       <c r="AG301" s="3"/>
@@ -6860,7 +7128,7 @@
       <c r="AI301" s="3"/>
       <c r="AJ301" s="3"/>
     </row>
-    <row r="302" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE302" s="3"/>
       <c r="AF302" s="3"/>
       <c r="AG302" s="3"/>
@@ -6868,7 +7136,7 @@
       <c r="AI302" s="3"/>
       <c r="AJ302" s="3"/>
     </row>
-    <row r="303" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE303" s="3"/>
       <c r="AF303" s="3"/>
       <c r="AG303" s="3"/>
@@ -6876,7 +7144,7 @@
       <c r="AI303" s="3"/>
       <c r="AJ303" s="3"/>
     </row>
-    <row r="304" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE304" s="3"/>
       <c r="AF304" s="3"/>
       <c r="AG304" s="3"/>
@@ -6884,7 +7152,7 @@
       <c r="AI304" s="3"/>
       <c r="AJ304" s="3"/>
     </row>
-    <row r="305" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE305" s="3"/>
       <c r="AF305" s="3"/>
       <c r="AG305" s="3"/>
@@ -6892,7 +7160,7 @@
       <c r="AI305" s="3"/>
       <c r="AJ305" s="3"/>
     </row>
-    <row r="306" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE306" s="3"/>
       <c r="AF306" s="3"/>
       <c r="AG306" s="3"/>
@@ -6900,7 +7168,7 @@
       <c r="AI306" s="3"/>
       <c r="AJ306" s="3"/>
     </row>
-    <row r="307" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE307" s="3"/>
       <c r="AF307" s="3"/>
       <c r="AG307" s="3"/>
@@ -6908,7 +7176,7 @@
       <c r="AI307" s="3"/>
       <c r="AJ307" s="3"/>
     </row>
-    <row r="308" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE308" s="3"/>
       <c r="AF308" s="3"/>
       <c r="AG308" s="3"/>
@@ -6916,7 +7184,7 @@
       <c r="AI308" s="3"/>
       <c r="AJ308" s="3"/>
     </row>
-    <row r="309" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE309" s="3"/>
       <c r="AF309" s="3"/>
       <c r="AG309" s="3"/>
@@ -6924,7 +7192,7 @@
       <c r="AI309" s="3"/>
       <c r="AJ309" s="3"/>
     </row>
-    <row r="310" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE310" s="3"/>
       <c r="AF310" s="3"/>
       <c r="AG310" s="3"/>
@@ -6932,7 +7200,7 @@
       <c r="AI310" s="3"/>
       <c r="AJ310" s="3"/>
     </row>
-    <row r="311" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE311" s="3"/>
       <c r="AF311" s="3"/>
       <c r="AG311" s="3"/>
@@ -6940,7 +7208,7 @@
       <c r="AI311" s="3"/>
       <c r="AJ311" s="3"/>
     </row>
-    <row r="312" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE312" s="3"/>
       <c r="AF312" s="3"/>
       <c r="AG312" s="3"/>
@@ -6948,7 +7216,7 @@
       <c r="AI312" s="3"/>
       <c r="AJ312" s="3"/>
     </row>
-    <row r="313" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE313" s="3"/>
       <c r="AF313" s="3"/>
       <c r="AG313" s="3"/>
@@ -6956,7 +7224,7 @@
       <c r="AI313" s="3"/>
       <c r="AJ313" s="3"/>
     </row>
-    <row r="314" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE314" s="3"/>
       <c r="AF314" s="3"/>
       <c r="AG314" s="3"/>
@@ -6964,7 +7232,7 @@
       <c r="AI314" s="3"/>
       <c r="AJ314" s="3"/>
     </row>
-    <row r="315" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE315" s="3"/>
       <c r="AF315" s="3"/>
       <c r="AG315" s="3"/>
@@ -6972,7 +7240,7 @@
       <c r="AI315" s="3"/>
       <c r="AJ315" s="3"/>
     </row>
-    <row r="316" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE316" s="3"/>
       <c r="AF316" s="3"/>
       <c r="AG316" s="3"/>
@@ -6980,7 +7248,7 @@
       <c r="AI316" s="3"/>
       <c r="AJ316" s="3"/>
     </row>
-    <row r="317" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE317" s="3"/>
       <c r="AF317" s="3"/>
       <c r="AG317" s="3"/>
@@ -6988,7 +7256,7 @@
       <c r="AI317" s="3"/>
       <c r="AJ317" s="3"/>
     </row>
-    <row r="318" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE318" s="3"/>
       <c r="AF318" s="3"/>
       <c r="AG318" s="3"/>
@@ -6996,7 +7264,7 @@
       <c r="AI318" s="3"/>
       <c r="AJ318" s="3"/>
     </row>
-    <row r="319" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE319" s="3"/>
       <c r="AF319" s="3"/>
       <c r="AG319" s="3"/>
@@ -7004,7 +7272,7 @@
       <c r="AI319" s="3"/>
       <c r="AJ319" s="3"/>
     </row>
-    <row r="320" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE320" s="3"/>
       <c r="AF320" s="3"/>
       <c r="AG320" s="3"/>
@@ -7012,7 +7280,7 @@
       <c r="AI320" s="3"/>
       <c r="AJ320" s="3"/>
     </row>
-    <row r="321" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE321" s="3"/>
       <c r="AF321" s="3"/>
       <c r="AG321" s="3"/>
@@ -7020,7 +7288,7 @@
       <c r="AI321" s="3"/>
       <c r="AJ321" s="3"/>
     </row>
-    <row r="322" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE322" s="3"/>
       <c r="AF322" s="3"/>
       <c r="AG322" s="3"/>
@@ -7028,7 +7296,7 @@
       <c r="AI322" s="3"/>
       <c r="AJ322" s="3"/>
     </row>
-    <row r="323" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE323" s="3"/>
       <c r="AF323" s="3"/>
       <c r="AG323" s="3"/>
@@ -7036,7 +7304,7 @@
       <c r="AI323" s="3"/>
       <c r="AJ323" s="3"/>
     </row>
-    <row r="324" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE324" s="3"/>
       <c r="AF324" s="3"/>
       <c r="AG324" s="3"/>
@@ -7044,7 +7312,7 @@
       <c r="AI324" s="3"/>
       <c r="AJ324" s="3"/>
     </row>
-    <row r="325" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE325" s="3"/>
       <c r="AF325" s="3"/>
       <c r="AG325" s="3"/>
@@ -7052,7 +7320,7 @@
       <c r="AI325" s="3"/>
       <c r="AJ325" s="3"/>
     </row>
-    <row r="326" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE326" s="3"/>
       <c r="AF326" s="3"/>
       <c r="AG326" s="3"/>
@@ -7060,7 +7328,7 @@
       <c r="AI326" s="3"/>
       <c r="AJ326" s="3"/>
     </row>
-    <row r="327" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE327" s="3"/>
       <c r="AF327" s="3"/>
       <c r="AG327" s="3"/>
@@ -7068,7 +7336,7 @@
       <c r="AI327" s="3"/>
       <c r="AJ327" s="3"/>
     </row>
-    <row r="328" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE328" s="3"/>
       <c r="AF328" s="3"/>
       <c r="AG328" s="3"/>
@@ -7076,7 +7344,7 @@
       <c r="AI328" s="3"/>
       <c r="AJ328" s="3"/>
     </row>
-    <row r="329" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE329" s="3"/>
       <c r="AF329" s="3"/>
       <c r="AG329" s="3"/>
@@ -7084,7 +7352,7 @@
       <c r="AI329" s="3"/>
       <c r="AJ329" s="3"/>
     </row>
-    <row r="330" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE330" s="3"/>
       <c r="AF330" s="3"/>
       <c r="AG330" s="3"/>
@@ -7092,7 +7360,7 @@
       <c r="AI330" s="3"/>
       <c r="AJ330" s="3"/>
     </row>
-    <row r="331" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE331" s="3"/>
       <c r="AF331" s="3"/>
       <c r="AG331" s="3"/>
@@ -7100,7 +7368,7 @@
       <c r="AI331" s="3"/>
       <c r="AJ331" s="3"/>
     </row>
-    <row r="332" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE332" s="3"/>
       <c r="AF332" s="3"/>
       <c r="AG332" s="3"/>
@@ -7108,7 +7376,7 @@
       <c r="AI332" s="3"/>
       <c r="AJ332" s="3"/>
     </row>
-    <row r="333" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE333" s="3"/>
       <c r="AF333" s="3"/>
       <c r="AG333" s="3"/>
@@ -7116,7 +7384,7 @@
       <c r="AI333" s="3"/>
       <c r="AJ333" s="3"/>
     </row>
-    <row r="334" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE334" s="3"/>
       <c r="AF334" s="3"/>
       <c r="AG334" s="3"/>
@@ -7124,7 +7392,7 @@
       <c r="AI334" s="3"/>
       <c r="AJ334" s="3"/>
     </row>
-    <row r="335" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE335" s="3"/>
       <c r="AF335" s="3"/>
       <c r="AG335" s="3"/>
@@ -7132,7 +7400,7 @@
       <c r="AI335" s="3"/>
       <c r="AJ335" s="3"/>
     </row>
-    <row r="336" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE336" s="3"/>
       <c r="AF336" s="3"/>
       <c r="AG336" s="3"/>
@@ -7140,7 +7408,7 @@
       <c r="AI336" s="3"/>
       <c r="AJ336" s="3"/>
     </row>
-    <row r="337" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE337" s="3"/>
       <c r="AF337" s="3"/>
       <c r="AG337" s="3"/>
@@ -7148,7 +7416,7 @@
       <c r="AI337" s="3"/>
       <c r="AJ337" s="3"/>
     </row>
-    <row r="338" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE338" s="3"/>
       <c r="AF338" s="3"/>
       <c r="AG338" s="3"/>
@@ -7156,7 +7424,7 @@
       <c r="AI338" s="3"/>
       <c r="AJ338" s="3"/>
     </row>
-    <row r="339" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE339" s="3"/>
       <c r="AF339" s="3"/>
       <c r="AG339" s="3"/>
@@ -7164,7 +7432,7 @@
       <c r="AI339" s="3"/>
       <c r="AJ339" s="3"/>
     </row>
-    <row r="340" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE340" s="3"/>
       <c r="AF340" s="3"/>
       <c r="AG340" s="3"/>
@@ -7172,7 +7440,7 @@
       <c r="AI340" s="3"/>
       <c r="AJ340" s="3"/>
     </row>
-    <row r="341" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE341" s="3"/>
       <c r="AF341" s="3"/>
       <c r="AG341" s="3"/>
@@ -7180,7 +7448,7 @@
       <c r="AI341" s="3"/>
       <c r="AJ341" s="3"/>
     </row>
-    <row r="342" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE342" s="3"/>
       <c r="AF342" s="3"/>
       <c r="AG342" s="3"/>
@@ -7188,7 +7456,7 @@
       <c r="AI342" s="3"/>
       <c r="AJ342" s="3"/>
     </row>
-    <row r="343" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE343" s="3"/>
       <c r="AF343" s="3"/>
       <c r="AG343" s="3"/>
@@ -7196,7 +7464,7 @@
       <c r="AI343" s="3"/>
       <c r="AJ343" s="3"/>
     </row>
-    <row r="344" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE344" s="3"/>
       <c r="AF344" s="3"/>
       <c r="AG344" s="3"/>
@@ -7204,7 +7472,7 @@
       <c r="AI344" s="3"/>
       <c r="AJ344" s="3"/>
     </row>
-    <row r="345" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE345" s="3"/>
       <c r="AF345" s="3"/>
       <c r="AG345" s="3"/>
@@ -7212,7 +7480,7 @@
       <c r="AI345" s="3"/>
       <c r="AJ345" s="3"/>
     </row>
-    <row r="346" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE346" s="3"/>
       <c r="AF346" s="3"/>
       <c r="AG346" s="3"/>
@@ -7220,7 +7488,7 @@
       <c r="AI346" s="3"/>
       <c r="AJ346" s="3"/>
     </row>
-    <row r="347" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE347" s="3"/>
       <c r="AF347" s="3"/>
       <c r="AG347" s="3"/>
@@ -7228,7 +7496,7 @@
       <c r="AI347" s="3"/>
       <c r="AJ347" s="3"/>
     </row>
-    <row r="348" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE348" s="3"/>
       <c r="AF348" s="3"/>
       <c r="AG348" s="3"/>
@@ -7236,7 +7504,7 @@
       <c r="AI348" s="3"/>
       <c r="AJ348" s="3"/>
     </row>
-    <row r="349" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE349" s="3"/>
       <c r="AF349" s="3"/>
       <c r="AG349" s="3"/>
@@ -7244,7 +7512,7 @@
       <c r="AI349" s="3"/>
       <c r="AJ349" s="3"/>
     </row>
-    <row r="350" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE350" s="3"/>
       <c r="AF350" s="3"/>
       <c r="AG350" s="3"/>
@@ -7252,7 +7520,7 @@
       <c r="AI350" s="3"/>
       <c r="AJ350" s="3"/>
     </row>
-    <row r="351" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE351" s="3"/>
       <c r="AF351" s="3"/>
       <c r="AG351" s="3"/>
@@ -7260,7 +7528,7 @@
       <c r="AI351" s="3"/>
       <c r="AJ351" s="3"/>
     </row>
-    <row r="352" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE352" s="3"/>
       <c r="AF352" s="3"/>
       <c r="AG352" s="3"/>
@@ -7268,7 +7536,7 @@
       <c r="AI352" s="3"/>
       <c r="AJ352" s="3"/>
     </row>
-    <row r="353" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE353" s="3"/>
       <c r="AF353" s="3"/>
       <c r="AG353" s="3"/>
@@ -7276,7 +7544,7 @@
       <c r="AI353" s="3"/>
       <c r="AJ353" s="3"/>
     </row>
-    <row r="354" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE354" s="3"/>
       <c r="AF354" s="3"/>
       <c r="AG354" s="3"/>
@@ -7284,7 +7552,7 @@
       <c r="AI354" s="3"/>
       <c r="AJ354" s="3"/>
     </row>
-    <row r="355" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE355" s="3"/>
       <c r="AF355" s="3"/>
       <c r="AG355" s="3"/>
@@ -7292,7 +7560,7 @@
       <c r="AI355" s="3"/>
       <c r="AJ355" s="3"/>
     </row>
-    <row r="356" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE356" s="3"/>
       <c r="AF356" s="3"/>
       <c r="AG356" s="3"/>
@@ -7300,7 +7568,7 @@
       <c r="AI356" s="3"/>
       <c r="AJ356" s="3"/>
     </row>
-    <row r="357" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE357" s="3"/>
       <c r="AF357" s="3"/>
       <c r="AG357" s="3"/>
@@ -7308,7 +7576,7 @@
       <c r="AI357" s="3"/>
       <c r="AJ357" s="3"/>
     </row>
-    <row r="358" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE358" s="3"/>
       <c r="AF358" s="3"/>
       <c r="AG358" s="3"/>
@@ -7316,7 +7584,7 @@
       <c r="AI358" s="3"/>
       <c r="AJ358" s="3"/>
     </row>
-    <row r="359" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE359" s="3"/>
       <c r="AF359" s="3"/>
       <c r="AG359" s="3"/>
@@ -7324,7 +7592,7 @@
       <c r="AI359" s="3"/>
       <c r="AJ359" s="3"/>
     </row>
-    <row r="360" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE360" s="3"/>
       <c r="AF360" s="3"/>
       <c r="AG360" s="3"/>
@@ -7332,7 +7600,7 @@
       <c r="AI360" s="3"/>
       <c r="AJ360" s="3"/>
     </row>
-    <row r="361" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE361" s="3"/>
       <c r="AF361" s="3"/>
       <c r="AG361" s="3"/>
@@ -7340,7 +7608,7 @@
       <c r="AI361" s="3"/>
       <c r="AJ361" s="3"/>
     </row>
-    <row r="362" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE362" s="3"/>
       <c r="AF362" s="3"/>
       <c r="AG362" s="3"/>
@@ -7348,7 +7616,7 @@
       <c r="AI362" s="3"/>
       <c r="AJ362" s="3"/>
     </row>
-    <row r="363" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE363" s="3"/>
       <c r="AF363" s="3"/>
       <c r="AG363" s="3"/>
@@ -7356,7 +7624,7 @@
       <c r="AI363" s="3"/>
       <c r="AJ363" s="3"/>
     </row>
-    <row r="364" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE364" s="3"/>
       <c r="AF364" s="3"/>
       <c r="AG364" s="3"/>
@@ -7364,7 +7632,7 @@
       <c r="AI364" s="3"/>
       <c r="AJ364" s="3"/>
     </row>
-    <row r="365" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE365" s="3"/>
       <c r="AF365" s="3"/>
       <c r="AG365" s="3"/>
@@ -7372,7 +7640,7 @@
       <c r="AI365" s="3"/>
       <c r="AJ365" s="3"/>
     </row>
-    <row r="366" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE366" s="3"/>
       <c r="AF366" s="3"/>
       <c r="AG366" s="3"/>
@@ -7380,7 +7648,7 @@
       <c r="AI366" s="3"/>
       <c r="AJ366" s="3"/>
     </row>
-    <row r="367" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE367" s="3"/>
       <c r="AF367" s="3"/>
       <c r="AG367" s="3"/>
@@ -7388,7 +7656,7 @@
       <c r="AI367" s="3"/>
       <c r="AJ367" s="3"/>
     </row>
-    <row r="368" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1">
       <c r="AE368" s="3"/>
       <c r="AF368" s="3"/>
       <c r="AG368" s="3"/>
@@ -7398,43 +7666,81 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R64:S65"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="R54:S55"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="R49:S50"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M54:N55"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD14:AD15"/>
     <mergeCell ref="M2:U3"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="T16:U16"/>
@@ -7459,81 +7765,500 @@
     <mergeCell ref="M11:N12"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="R64:S65"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="R54:S55"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="R49:S50"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M54:N55"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E15A3C-EA22-4D49-A64C-38B370168880}">
+  <dimension ref="A2:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="39" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="27">
+        <v>443914440.77999997</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="39" customHeight="1" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="28">
+        <v>819.45</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="39" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="27">
+        <v>360832696.69</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1" thickBot="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="28">
+        <v>709.93</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" ht="44.25" customHeight="1">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="45.75" customHeight="1">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="30">
+        <v>2587</v>
+      </c>
+      <c r="G18" s="34">
+        <v>763721.89</v>
+      </c>
+      <c r="H18" s="32">
+        <v>17336</v>
+      </c>
+      <c r="I18" s="34">
+        <v>5069955.5199999996</v>
+      </c>
+      <c r="J18" s="35">
+        <v>93365</v>
+      </c>
+      <c r="K18" s="34">
+        <v>873468</v>
+      </c>
+      <c r="L18" s="36">
+        <f>(I18-K18)/K18</f>
+        <v>4.8043975509119958</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="16">
+        <v>2587</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>763721.89</v>
+      </c>
+      <c r="R18" s="16">
+        <v>17336</v>
+      </c>
+      <c r="S18" s="37">
+        <v>5069955.5199999996</v>
+      </c>
+      <c r="T18" s="16">
+        <v>94020</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="30">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="16">
+        <v>11651</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>3424135.92</v>
+      </c>
+      <c r="R19" s="16">
+        <v>8272</v>
+      </c>
+      <c r="S19" s="37">
+        <v>2409541.4900000002</v>
+      </c>
+      <c r="T19" s="16">
+        <v>15754</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="44.25" customHeight="1">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V20" s="17"/>
+    </row>
+    <row r="21" spans="2:22" ht="42" customHeight="1">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="30">
+        <v>2587</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3424135.92</v>
+      </c>
+      <c r="H21" s="32">
+        <v>17336</v>
+      </c>
+      <c r="I21" s="34">
+        <v>2409541.4900000002</v>
+      </c>
+      <c r="J21" s="35">
+        <v>15559</v>
+      </c>
+      <c r="K21" s="34">
+        <v>144352.5</v>
+      </c>
+      <c r="L21" s="36">
+        <f>(I21-K21)/K21</f>
+        <v>15.692066226771272</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="16">
+        <v>2528</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>763549.29</v>
+      </c>
+      <c r="R21" s="16">
+        <v>16797</v>
+      </c>
+      <c r="S21" s="37">
+        <v>5068342.3899999997</v>
+      </c>
+      <c r="T21" s="16">
+        <v>91944</v>
+      </c>
+      <c r="U21" s="37">
+        <v>873468</v>
+      </c>
+      <c r="V21" s="16">
+        <v>5.80255074026753</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="30">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="29">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="16">
+        <v>11343</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>3423252.07</v>
+      </c>
+      <c r="R22" s="16">
+        <v>7982</v>
+      </c>
+      <c r="S22" s="37">
+        <v>2408639.61</v>
+      </c>
+      <c r="T22" s="16">
+        <v>15195</v>
+      </c>
+      <c r="U22" s="37">
+        <v>144352.5</v>
+      </c>
+      <c r="V22" s="16">
+        <v>16.685818465215299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
